--- a/data/BOC/FTD/FTDE/AGDSEXCSB_M_historical.xlsx
+++ b/data/BOC/FTD/FTDE/AGDSEXCSB_M_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IT137"/>
+  <dimension ref="A1:IW137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1624,15 +1624,30 @@
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="IS1" s="1" t="inlineStr">
+      <c r="IV1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="IT1" s="1" t="inlineStr">
+      <c r="IW1" s="1" t="inlineStr">
         <is>
           <t>order</t>
         </is>
@@ -2392,19 +2407,28 @@
         <v>12033</v>
       </c>
       <c r="IQ2" t="n">
-        <v>14090</v>
-      </c>
-      <c r="IR2" t="inlineStr">
+        <v>14089</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>15217</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>14120</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>14122</v>
+      </c>
+      <c r="IU2" t="inlineStr">
         <is>
           <t>AFFBEXCSB</t>
         </is>
       </c>
-      <c r="IS2" t="inlineStr">
+      <c r="IV2" t="inlineStr">
         <is>
           <t>Foods, Feeds and Beverages,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT2" t="n">
+      <c r="IW2" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3164,17 +3188,26 @@
       <c r="IQ3" t="n">
         <v>168</v>
       </c>
-      <c r="IR3" t="inlineStr">
+      <c r="IR3" t="n">
+        <v>195</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>195</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>209</v>
+      </c>
+      <c r="IU3" t="inlineStr">
         <is>
           <t>AACBEXCSB</t>
         </is>
       </c>
-      <c r="IS3" t="inlineStr">
+      <c r="IV3" t="inlineStr">
         <is>
           <t>Alcoholic beverages, excluding wine,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT3" t="n">
+      <c r="IW3" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3934,17 +3967,26 @@
       <c r="IQ4" t="n">
         <v>939</v>
       </c>
-      <c r="IR4" t="inlineStr">
+      <c r="IR4" t="n">
+        <v>941</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>893</v>
+      </c>
+      <c r="IU4" t="inlineStr">
         <is>
           <t>AANFEXCSB</t>
         </is>
       </c>
-      <c r="IS4" t="inlineStr">
+      <c r="IV4" t="inlineStr">
         <is>
           <t>Animal feeds, n.e.c.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT4" t="n">
+      <c r="IW4" t="n">
         <v>15</v>
       </c>
     </row>
@@ -4704,17 +4746,26 @@
       <c r="IQ5" t="n">
         <v>529</v>
       </c>
-      <c r="IR5" t="inlineStr">
+      <c r="IR5" t="n">
+        <v>517</v>
+      </c>
+      <c r="IS5" t="n">
+        <v>523</v>
+      </c>
+      <c r="IT5" t="n">
+        <v>528</v>
+      </c>
+      <c r="IU5" t="inlineStr">
         <is>
           <t>ABAKEXCSB</t>
         </is>
       </c>
-      <c r="IS5" t="inlineStr">
+      <c r="IV5" t="inlineStr">
         <is>
           <t>Bakery products,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT5" t="n">
+      <c r="IW5" t="n">
         <v>16</v>
       </c>
     </row>
@@ -5474,17 +5525,26 @@
       <c r="IQ6" t="n">
         <v>1272</v>
       </c>
-      <c r="IR6" t="inlineStr">
+      <c r="IR6" t="n">
+        <v>1470</v>
+      </c>
+      <c r="IS6" t="n">
+        <v>1483</v>
+      </c>
+      <c r="IT6" t="n">
+        <v>1735</v>
+      </c>
+      <c r="IU6" t="inlineStr">
         <is>
           <t>ACOREXCSB</t>
         </is>
       </c>
-      <c r="IS6" t="inlineStr">
+      <c r="IV6" t="inlineStr">
         <is>
           <t>Corn,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT6" t="n">
+      <c r="IW6" t="n">
         <v>19</v>
       </c>
     </row>
@@ -6244,17 +6304,26 @@
       <c r="IQ7" t="n">
         <v>527</v>
       </c>
-      <c r="IR7" t="inlineStr">
+      <c r="IR7" t="n">
+        <v>571</v>
+      </c>
+      <c r="IS7" t="n">
+        <v>511</v>
+      </c>
+      <c r="IT7" t="n">
+        <v>537</v>
+      </c>
+      <c r="IU7" t="inlineStr">
         <is>
           <t>ADPEEXCSB</t>
         </is>
       </c>
-      <c r="IS7" t="inlineStr">
+      <c r="IV7" t="inlineStr">
         <is>
           <t>Dairy products and eggs,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT7" t="n">
+      <c r="IW7" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7014,17 +7083,26 @@
       <c r="IQ8" t="n">
         <v>490</v>
       </c>
-      <c r="IR8" t="inlineStr">
+      <c r="IR8" t="n">
+        <v>541</v>
+      </c>
+      <c r="IS8" t="n">
+        <v>451</v>
+      </c>
+      <c r="IT8" t="n">
+        <v>460</v>
+      </c>
+      <c r="IU8" t="inlineStr">
         <is>
           <t>AFSFEXCSB</t>
         </is>
       </c>
-      <c r="IS8" t="inlineStr">
+      <c r="IV8" t="inlineStr">
         <is>
           <t>Fish and shellfish,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT8" t="n">
+      <c r="IW8" t="n">
         <v>22</v>
       </c>
     </row>
@@ -7784,17 +7862,26 @@
       <c r="IQ9" t="n">
         <v>747</v>
       </c>
-      <c r="IR9" t="inlineStr">
+      <c r="IR9" t="n">
+        <v>691</v>
+      </c>
+      <c r="IS9" t="n">
+        <v>691</v>
+      </c>
+      <c r="IT9" t="n">
+        <v>746</v>
+      </c>
+      <c r="IU9" t="inlineStr">
         <is>
           <t>AFFJEXCSB</t>
         </is>
       </c>
-      <c r="IS9" t="inlineStr">
+      <c r="IV9" t="inlineStr">
         <is>
           <t>Fruits and frozen juices,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT9" t="n">
+      <c r="IW9" t="n">
         <v>23</v>
       </c>
     </row>
@@ -8552,19 +8639,28 @@
         <v>2174</v>
       </c>
       <c r="IQ10" t="n">
-        <v>2104</v>
-      </c>
-      <c r="IR10" t="inlineStr">
+        <v>2105</v>
+      </c>
+      <c r="IR10" t="n">
+        <v>2112</v>
+      </c>
+      <c r="IS10" t="n">
+        <v>2030</v>
+      </c>
+      <c r="IT10" t="n">
+        <v>2228</v>
+      </c>
+      <c r="IU10" t="inlineStr">
         <is>
           <t>AMPOEXCSB</t>
         </is>
       </c>
-      <c r="IS10" t="inlineStr">
+      <c r="IV10" t="inlineStr">
         <is>
           <t>Meat, poultry, etc.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT10" t="n">
+      <c r="IW10" t="n">
         <v>25</v>
       </c>
     </row>
@@ -9324,17 +9420,26 @@
       <c r="IQ11" t="n">
         <v>32</v>
       </c>
-      <c r="IR11" t="inlineStr">
+      <c r="IR11" t="n">
+        <v>35</v>
+      </c>
+      <c r="IS11" t="n">
+        <v>29</v>
+      </c>
+      <c r="IT11" t="n">
+        <v>36</v>
+      </c>
+      <c r="IU11" t="inlineStr">
         <is>
           <t>ANAFEXCSB</t>
         </is>
       </c>
-      <c r="IS11" t="inlineStr">
+      <c r="IV11" t="inlineStr">
         <is>
           <t>Nonagricultural foods, etc.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT11" t="n">
+      <c r="IW11" t="n">
         <v>26</v>
       </c>
     </row>
@@ -10094,17 +10199,26 @@
       <c r="IQ12" t="n">
         <v>880</v>
       </c>
-      <c r="IR12" t="inlineStr">
+      <c r="IR12" t="n">
+        <v>778</v>
+      </c>
+      <c r="IS12" t="n">
+        <v>584</v>
+      </c>
+      <c r="IT12" t="n">
+        <v>685</v>
+      </c>
+      <c r="IU12" t="inlineStr">
         <is>
           <t>ANUTEXCSB</t>
         </is>
       </c>
-      <c r="IS12" t="inlineStr">
+      <c r="IV12" t="inlineStr">
         <is>
           <t>Nuts,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT12" t="n">
+      <c r="IW12" t="n">
         <v>27</v>
       </c>
     </row>
@@ -10864,17 +10978,26 @@
       <c r="IQ13" t="n">
         <v>244</v>
       </c>
-      <c r="IR13" t="inlineStr">
+      <c r="IR13" t="n">
+        <v>376</v>
+      </c>
+      <c r="IS13" t="n">
+        <v>303</v>
+      </c>
+      <c r="IT13" t="n">
+        <v>397</v>
+      </c>
+      <c r="IU13" t="inlineStr">
         <is>
           <t>AOFOEXCSB</t>
         </is>
       </c>
-      <c r="IS13" t="inlineStr">
+      <c r="IV13" t="inlineStr">
         <is>
           <t>Food oils and oilseeds,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT13" t="n">
+      <c r="IW13" t="n">
         <v>28</v>
       </c>
     </row>
@@ -11632,19 +11755,28 @@
         <v>1459</v>
       </c>
       <c r="IQ14" t="n">
-        <v>1459</v>
-      </c>
-      <c r="IR14" t="inlineStr">
+        <v>1458</v>
+      </c>
+      <c r="IR14" t="n">
+        <v>1515</v>
+      </c>
+      <c r="IS14" t="n">
+        <v>1447</v>
+      </c>
+      <c r="IT14" t="n">
+        <v>1418</v>
+      </c>
+      <c r="IU14" t="inlineStr">
         <is>
           <t>AOTFEXCSB</t>
         </is>
       </c>
-      <c r="IS14" t="inlineStr">
+      <c r="IV14" t="inlineStr">
         <is>
           <t>Other foods,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT14" t="n">
+      <c r="IW14" t="n">
         <v>29</v>
       </c>
     </row>
@@ -12404,17 +12536,26 @@
       <c r="IQ15" t="n">
         <v>146</v>
       </c>
-      <c r="IR15" t="inlineStr">
+      <c r="IR15" t="n">
+        <v>215</v>
+      </c>
+      <c r="IS15" t="n">
+        <v>175</v>
+      </c>
+      <c r="IT15" t="n">
+        <v>177</v>
+      </c>
+      <c r="IU15" t="inlineStr">
         <is>
           <t>ARICEXCSB</t>
         </is>
       </c>
-      <c r="IS15" t="inlineStr">
+      <c r="IV15" t="inlineStr">
         <is>
           <t>Rice,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT15" t="n">
+      <c r="IW15" t="n">
         <v>30</v>
       </c>
     </row>
@@ -13174,17 +13315,26 @@
       <c r="IQ16" t="n">
         <v>115</v>
       </c>
-      <c r="IR16" t="inlineStr">
+      <c r="IR16" t="n">
+        <v>198</v>
+      </c>
+      <c r="IS16" t="n">
+        <v>267</v>
+      </c>
+      <c r="IT16" t="n">
+        <v>172</v>
+      </c>
+      <c r="IU16" t="inlineStr">
         <is>
           <t>ASBOEXCSB</t>
         </is>
       </c>
-      <c r="IS16" t="inlineStr">
+      <c r="IV16" t="inlineStr">
         <is>
           <t>Sorghum, barley, oats,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT16" t="n">
+      <c r="IW16" t="n">
         <v>31</v>
       </c>
     </row>
@@ -13944,17 +14094,26 @@
       <c r="IQ17" t="n">
         <v>3129</v>
       </c>
-      <c r="IR17" t="inlineStr">
+      <c r="IR17" t="n">
+        <v>3627</v>
+      </c>
+      <c r="IS17" t="n">
+        <v>3144</v>
+      </c>
+      <c r="IT17" t="n">
+        <v>2452</v>
+      </c>
+      <c r="IU17" t="inlineStr">
         <is>
           <t>ASOYEXCSB</t>
         </is>
       </c>
-      <c r="IS17" t="inlineStr">
+      <c r="IV17" t="inlineStr">
         <is>
           <t>Soybeans,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT17" t="n">
+      <c r="IW17" t="n">
         <v>32</v>
       </c>
     </row>
@@ -14712,19 +14871,28 @@
         <v>587</v>
       </c>
       <c r="IQ18" t="n">
-        <v>600</v>
-      </c>
-      <c r="IR18" t="inlineStr">
+        <v>598</v>
+      </c>
+      <c r="IR18" t="n">
+        <v>585</v>
+      </c>
+      <c r="IS18" t="n">
+        <v>567</v>
+      </c>
+      <c r="IT18" t="n">
+        <v>532</v>
+      </c>
+      <c r="IU18" t="inlineStr">
         <is>
           <t>AVEGEXCSB</t>
         </is>
       </c>
-      <c r="IS18" t="inlineStr">
+      <c r="IV18" t="inlineStr">
         <is>
           <t>Vegetables,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT18" t="n">
+      <c r="IW18" t="n">
         <v>34</v>
       </c>
     </row>
@@ -15484,17 +15652,26 @@
       <c r="IQ19" t="n">
         <v>535</v>
       </c>
-      <c r="IR19" t="inlineStr">
+      <c r="IR19" t="n">
+        <v>660</v>
+      </c>
+      <c r="IS19" t="n">
+        <v>564</v>
+      </c>
+      <c r="IT19" t="n">
+        <v>742</v>
+      </c>
+      <c r="IU19" t="inlineStr">
         <is>
           <t>AWHTEXCSB</t>
         </is>
       </c>
-      <c r="IS19" t="inlineStr">
+      <c r="IV19" t="inlineStr">
         <is>
           <t>Wheat,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT19" t="n">
+      <c r="IW19" t="n">
         <v>35</v>
       </c>
     </row>
@@ -16254,17 +16431,26 @@
       <c r="IQ20" t="n">
         <v>176</v>
       </c>
-      <c r="IR20" t="inlineStr">
+      <c r="IR20" t="n">
+        <v>189</v>
+      </c>
+      <c r="IS20" t="n">
+        <v>155</v>
+      </c>
+      <c r="IT20" t="n">
+        <v>175</v>
+      </c>
+      <c r="IU20" t="inlineStr">
         <is>
           <t>AWBPEXCSB</t>
         </is>
       </c>
-      <c r="IS20" t="inlineStr">
+      <c r="IV20" t="inlineStr">
         <is>
           <t>Wine, beer, and related products,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT20" t="n">
+      <c r="IW20" t="n">
         <v>36</v>
       </c>
     </row>
@@ -17022,19 +17208,28 @@
         <v>51599</v>
       </c>
       <c r="IQ21" t="n">
-        <v>58046</v>
-      </c>
-      <c r="IR21" t="inlineStr">
+        <v>58016</v>
+      </c>
+      <c r="IR21" t="n">
+        <v>57154</v>
+      </c>
+      <c r="IS21" t="n">
+        <v>57571</v>
+      </c>
+      <c r="IT21" t="n">
+        <v>58022</v>
+      </c>
+      <c r="IU21" t="inlineStr">
         <is>
           <t>AIDSEXCSB</t>
         </is>
       </c>
-      <c r="IS21" t="inlineStr">
+      <c r="IV21" t="inlineStr">
         <is>
           <t>Industrial Supplies and Materials,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT21" t="n">
+      <c r="IW21" t="n">
         <v>37</v>
       </c>
     </row>
@@ -17794,17 +17989,26 @@
       <c r="IQ22" t="n">
         <v>293</v>
       </c>
-      <c r="IR22" t="inlineStr">
+      <c r="IR22" t="n">
+        <v>293</v>
+      </c>
+      <c r="IS22" t="n">
+        <v>265</v>
+      </c>
+      <c r="IT22" t="n">
+        <v>277</v>
+      </c>
+      <c r="IU22" t="inlineStr">
         <is>
           <t>AAFUEXCSB</t>
         </is>
       </c>
-      <c r="IS22" t="inlineStr">
+      <c r="IV22" t="inlineStr">
         <is>
           <t>Agricultural farming-unmanufactured,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT22" t="n">
+      <c r="IW22" t="n">
         <v>38</v>
       </c>
     </row>
@@ -18564,17 +18768,26 @@
       <c r="IQ23" t="n">
         <v>500</v>
       </c>
-      <c r="IR23" t="inlineStr">
+      <c r="IR23" t="n">
+        <v>461</v>
+      </c>
+      <c r="IS23" t="n">
+        <v>480</v>
+      </c>
+      <c r="IT23" t="n">
+        <v>551</v>
+      </c>
+      <c r="IU23" t="inlineStr">
         <is>
           <t>AAIUEXCSB</t>
         </is>
       </c>
-      <c r="IS23" t="inlineStr">
+      <c r="IV23" t="inlineStr">
         <is>
           <t>Agricultural industry-unmanufactured,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT23" t="n">
+      <c r="IW23" t="n">
         <v>39</v>
       </c>
     </row>
@@ -19334,17 +19547,26 @@
       <c r="IQ24" t="n">
         <v>357</v>
       </c>
-      <c r="IR24" t="inlineStr">
+      <c r="IR24" t="n">
+        <v>358</v>
+      </c>
+      <c r="IS24" t="n">
+        <v>329</v>
+      </c>
+      <c r="IT24" t="n">
+        <v>343</v>
+      </c>
+      <c r="IU24" t="inlineStr">
         <is>
           <t>AOAMEXCSB</t>
         </is>
       </c>
-      <c r="IS24" t="inlineStr">
+      <c r="IV24" t="inlineStr">
         <is>
           <t>Agriculture-manufactured, other,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT24" t="n">
+      <c r="IW24" t="n">
         <v>40</v>
       </c>
     </row>
@@ -20104,17 +20326,26 @@
       <c r="IQ25" t="n">
         <v>746</v>
       </c>
-      <c r="IR25" t="inlineStr">
+      <c r="IR25" t="n">
+        <v>844</v>
+      </c>
+      <c r="IS25" t="n">
+        <v>775</v>
+      </c>
+      <c r="IT25" t="n">
+        <v>718</v>
+      </c>
+      <c r="IU25" t="inlineStr">
         <is>
           <t>AALUEXCSB</t>
         </is>
       </c>
-      <c r="IS25" t="inlineStr">
+      <c r="IV25" t="inlineStr">
         <is>
           <t>Aluminum and alumina,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT25" t="n">
+      <c r="IW25" t="n">
         <v>41</v>
       </c>
     </row>
@@ -20874,17 +21105,26 @@
       <c r="IQ26" t="n">
         <v>14</v>
       </c>
-      <c r="IR26" t="inlineStr">
+      <c r="IR26" t="n">
+        <v>9</v>
+      </c>
+      <c r="IS26" t="n">
+        <v>12</v>
+      </c>
+      <c r="IT26" t="n">
+        <v>9</v>
+      </c>
+      <c r="IU26" t="inlineStr">
         <is>
           <t>ATAVEXCSB</t>
         </is>
       </c>
-      <c r="IS26" t="inlineStr">
+      <c r="IV26" t="inlineStr">
         <is>
           <t>Tapes, audio and visual,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT26" t="n">
+      <c r="IW26" t="n">
         <v>43</v>
       </c>
     </row>
@@ -21642,19 +21882,28 @@
         <v>873</v>
       </c>
       <c r="IQ27" t="n">
-        <v>881</v>
-      </c>
-      <c r="IR27" t="inlineStr">
+        <v>880</v>
+      </c>
+      <c r="IR27" t="n">
+        <v>877</v>
+      </c>
+      <c r="IS27" t="n">
+        <v>826</v>
+      </c>
+      <c r="IT27" t="n">
+        <v>1060</v>
+      </c>
+      <c r="IU27" t="inlineStr">
         <is>
           <t>ACMFEXCSB</t>
         </is>
       </c>
-      <c r="IS27" t="inlineStr">
+      <c r="IV27" t="inlineStr">
         <is>
           <t>Chemicals-fertilizers,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT27" t="n">
+      <c r="IW27" t="n">
         <v>44</v>
       </c>
     </row>
@@ -22412,19 +22661,28 @@
         <v>906</v>
       </c>
       <c r="IQ28" t="n">
-        <v>896</v>
-      </c>
-      <c r="IR28" t="inlineStr">
+        <v>895</v>
+      </c>
+      <c r="IR28" t="n">
+        <v>909</v>
+      </c>
+      <c r="IS28" t="n">
+        <v>967</v>
+      </c>
+      <c r="IT28" t="n">
+        <v>976</v>
+      </c>
+      <c r="IU28" t="inlineStr">
         <is>
           <t>ACMIEXCSB</t>
         </is>
       </c>
-      <c r="IS28" t="inlineStr">
+      <c r="IV28" t="inlineStr">
         <is>
           <t>Chemicals-inorganic,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT28" t="n">
+      <c r="IW28" t="n">
         <v>45</v>
       </c>
     </row>
@@ -23182,19 +23440,28 @@
         <v>2831</v>
       </c>
       <c r="IQ29" t="n">
-        <v>3048</v>
-      </c>
-      <c r="IR29" t="inlineStr">
+        <v>3051</v>
+      </c>
+      <c r="IR29" t="n">
+        <v>3085</v>
+      </c>
+      <c r="IS29" t="n">
+        <v>3138</v>
+      </c>
+      <c r="IT29" t="n">
+        <v>3524</v>
+      </c>
+      <c r="IU29" t="inlineStr">
         <is>
           <t>ACMOEXCSB</t>
         </is>
       </c>
-      <c r="IS29" t="inlineStr">
+      <c r="IV29" t="inlineStr">
         <is>
           <t>Chemicals-organic,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT29" t="n">
+      <c r="IW29" t="n">
         <v>46</v>
       </c>
     </row>
@@ -23954,17 +24221,26 @@
       <c r="IQ30" t="n">
         <v>3304</v>
       </c>
-      <c r="IR30" t="inlineStr">
+      <c r="IR30" t="n">
+        <v>3271</v>
+      </c>
+      <c r="IS30" t="n">
+        <v>3334</v>
+      </c>
+      <c r="IT30" t="n">
+        <v>3470</v>
+      </c>
+      <c r="IU30" t="inlineStr">
         <is>
           <t>AOCMEXCSB</t>
         </is>
       </c>
-      <c r="IS30" t="inlineStr">
+      <c r="IV30" t="inlineStr">
         <is>
           <t>Chemicals-other,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT30" t="n">
+      <c r="IW30" t="n">
         <v>47</v>
       </c>
     </row>
@@ -24724,17 +25000,26 @@
       <c r="IQ31" t="n">
         <v>592</v>
       </c>
-      <c r="IR31" t="inlineStr">
+      <c r="IR31" t="n">
+        <v>749</v>
+      </c>
+      <c r="IS31" t="n">
+        <v>671</v>
+      </c>
+      <c r="IT31" t="n">
+        <v>756</v>
+      </c>
+      <c r="IU31" t="inlineStr">
         <is>
           <t>AOCFEXCSB</t>
         </is>
       </c>
-      <c r="IS31" t="inlineStr">
+      <c r="IV31" t="inlineStr">
         <is>
           <t>Coal and related fuels,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT31" t="n">
+      <c r="IW31" t="n">
         <v>48</v>
       </c>
     </row>
@@ -25494,17 +25779,26 @@
       <c r="IQ32" t="n">
         <v>722</v>
       </c>
-      <c r="IR32" t="inlineStr">
+      <c r="IR32" t="n">
+        <v>778</v>
+      </c>
+      <c r="IS32" t="n">
+        <v>747</v>
+      </c>
+      <c r="IT32" t="n">
+        <v>830</v>
+      </c>
+      <c r="IU32" t="inlineStr">
         <is>
           <t>ACOPEXCSB</t>
         </is>
       </c>
-      <c r="IS32" t="inlineStr">
+      <c r="IV32" t="inlineStr">
         <is>
           <t>Copper,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT32" t="n">
+      <c r="IW32" t="n">
         <v>49</v>
       </c>
     </row>
@@ -26264,17 +26558,26 @@
       <c r="IQ33" t="n">
         <v>141</v>
       </c>
-      <c r="IR33" t="inlineStr">
+      <c r="IR33" t="n">
+        <v>145</v>
+      </c>
+      <c r="IS33" t="n">
+        <v>178</v>
+      </c>
+      <c r="IT33" t="n">
+        <v>165</v>
+      </c>
+      <c r="IU33" t="inlineStr">
         <is>
           <t>ACFCEXCSB</t>
         </is>
       </c>
-      <c r="IS33" t="inlineStr">
+      <c r="IV33" t="inlineStr">
         <is>
           <t>Cotton fiber cloth,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT33" t="n">
+      <c r="IW33" t="n">
         <v>50</v>
       </c>
     </row>
@@ -27034,17 +27337,26 @@
       <c r="IQ34" t="n">
         <v>351</v>
       </c>
-      <c r="IR34" t="inlineStr">
+      <c r="IR34" t="n">
+        <v>339</v>
+      </c>
+      <c r="IS34" t="n">
+        <v>505</v>
+      </c>
+      <c r="IT34" t="n">
+        <v>648</v>
+      </c>
+      <c r="IU34" t="inlineStr">
         <is>
           <t>ACTREXCSB</t>
         </is>
       </c>
-      <c r="IS34" t="inlineStr">
+      <c r="IV34" t="inlineStr">
         <is>
           <t>Cotton, raw,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT34" t="n">
+      <c r="IW34" t="n">
         <v>51</v>
       </c>
     </row>
@@ -27804,17 +28116,26 @@
       <c r="IQ35" t="n">
         <v>6548</v>
       </c>
-      <c r="IR35" t="inlineStr">
+      <c r="IR35" t="n">
+        <v>6942</v>
+      </c>
+      <c r="IS35" t="n">
+        <v>7449</v>
+      </c>
+      <c r="IT35" t="n">
+        <v>7491</v>
+      </c>
+      <c r="IU35" t="inlineStr">
         <is>
           <t>ACDOEXCSB</t>
         </is>
       </c>
-      <c r="IS35" t="inlineStr">
+      <c r="IV35" t="inlineStr">
         <is>
           <t>Crude oil,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT35" t="n">
+      <c r="IW35" t="n">
         <v>53</v>
       </c>
     </row>
@@ -28576,17 +28897,26 @@
       <c r="IQ36" t="n">
         <v>52</v>
       </c>
-      <c r="IR36" t="inlineStr">
+      <c r="IR36" t="n">
+        <v>57</v>
+      </c>
+      <c r="IS36" t="n">
+        <v>82</v>
+      </c>
+      <c r="IT36" t="n">
+        <v>78</v>
+      </c>
+      <c r="IU36" t="inlineStr">
         <is>
           <t>AEENEXCSB</t>
         </is>
       </c>
-      <c r="IS36" t="inlineStr">
+      <c r="IV36" t="inlineStr">
         <is>
           <t>Electric energy,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT36" t="n">
+      <c r="IW36" t="n">
         <v>54</v>
       </c>
     </row>
@@ -29346,17 +29676,26 @@
       <c r="IQ37" t="n">
         <v>1918</v>
       </c>
-      <c r="IR37" t="inlineStr">
+      <c r="IR37" t="n">
+        <v>1943</v>
+      </c>
+      <c r="IS37" t="n">
+        <v>2056</v>
+      </c>
+      <c r="IT37" t="n">
+        <v>2014</v>
+      </c>
+      <c r="IU37" t="inlineStr">
         <is>
           <t>AFMSEXCSB</t>
         </is>
       </c>
-      <c r="IS37" t="inlineStr">
+      <c r="IV37" t="inlineStr">
         <is>
           <t>Finished metal shapes,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT37" t="n">
+      <c r="IW37" t="n">
         <v>56</v>
       </c>
     </row>
@@ -30114,19 +30453,28 @@
         <v>237</v>
       </c>
       <c r="IQ38" t="n">
+        <v>252</v>
+      </c>
+      <c r="IR38" t="n">
+        <v>254</v>
+      </c>
+      <c r="IS38" t="n">
+        <v>255</v>
+      </c>
+      <c r="IT38" t="n">
         <v>251</v>
       </c>
-      <c r="IR38" t="inlineStr">
+      <c r="IU38" t="inlineStr">
         <is>
           <t>AFTSEXCSB</t>
         </is>
       </c>
-      <c r="IS38" t="inlineStr">
+      <c r="IV38" t="inlineStr">
         <is>
           <t>Finished textile supplies,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT38" t="n">
+      <c r="IW38" t="n">
         <v>57</v>
       </c>
     </row>
@@ -30884,19 +31232,28 @@
         <v>2250</v>
       </c>
       <c r="IQ39" t="n">
-        <v>3079</v>
-      </c>
-      <c r="IR39" t="inlineStr">
+        <v>3078</v>
+      </c>
+      <c r="IR39" t="n">
+        <v>3277</v>
+      </c>
+      <c r="IS39" t="n">
+        <v>3123</v>
+      </c>
+      <c r="IT39" t="n">
+        <v>2883</v>
+      </c>
+      <c r="IU39" t="inlineStr">
         <is>
           <t>AFULEXCSB</t>
         </is>
       </c>
-      <c r="IS39" t="inlineStr">
+      <c r="IV39" t="inlineStr">
         <is>
           <t>Fuel oil,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT39" t="n">
+      <c r="IW39" t="n">
         <v>58</v>
       </c>
     </row>
@@ -31654,19 +32011,28 @@
         <v>3871</v>
       </c>
       <c r="IQ40" t="n">
-        <v>4247</v>
-      </c>
-      <c r="IR40" t="inlineStr">
+        <v>4255</v>
+      </c>
+      <c r="IR40" t="n">
+        <v>4000</v>
+      </c>
+      <c r="IS40" t="n">
+        <v>3676</v>
+      </c>
+      <c r="IT40" t="n">
+        <v>3377</v>
+      </c>
+      <c r="IU40" t="inlineStr">
         <is>
           <t>ANGSEXCSB</t>
         </is>
       </c>
-      <c r="IS40" t="inlineStr">
+      <c r="IV40" t="inlineStr">
         <is>
           <t>Gas-natural,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT40" t="n">
+      <c r="IW40" t="n">
         <v>59</v>
       </c>
     </row>
@@ -32426,17 +32792,26 @@
       <c r="IQ41" t="n">
         <v>113</v>
       </c>
-      <c r="IR41" t="inlineStr">
+      <c r="IR41" t="n">
+        <v>100</v>
+      </c>
+      <c r="IS41" t="n">
+        <v>111</v>
+      </c>
+      <c r="IT41" t="n">
+        <v>107</v>
+      </c>
+      <c r="IU41" t="inlineStr">
         <is>
           <t>AGPSEXCSB</t>
         </is>
       </c>
-      <c r="IS41" t="inlineStr">
+      <c r="IV41" t="inlineStr">
         <is>
           <t>Glass-plate, sheet, etc.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT41" t="n">
+      <c r="IW41" t="n">
         <v>60</v>
       </c>
     </row>
@@ -33196,17 +33571,26 @@
       <c r="IQ42" t="n">
         <v>49</v>
       </c>
-      <c r="IR42" t="inlineStr">
+      <c r="IR42" t="n">
+        <v>47</v>
+      </c>
+      <c r="IS42" t="n">
+        <v>53</v>
+      </c>
+      <c r="IT42" t="n">
+        <v>52</v>
+      </c>
+      <c r="IU42" t="inlineStr">
         <is>
           <t>AHWMEXCSB</t>
         </is>
       </c>
-      <c r="IS42" t="inlineStr">
+      <c r="IV42" t="inlineStr">
         <is>
           <t>Hair and waste materials,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT42" t="n">
+      <c r="IW42" t="n">
         <v>61</v>
       </c>
     </row>
@@ -33966,17 +34350,26 @@
       <c r="IQ43" t="n">
         <v>128</v>
       </c>
-      <c r="IR43" t="inlineStr">
+      <c r="IR43" t="n">
+        <v>91</v>
+      </c>
+      <c r="IS43" t="n">
+        <v>92</v>
+      </c>
+      <c r="IT43" t="n">
+        <v>95</v>
+      </c>
+      <c r="IU43" t="inlineStr">
         <is>
           <t>AHSKEXCSB</t>
         </is>
       </c>
-      <c r="IS43" t="inlineStr">
+      <c r="IV43" t="inlineStr">
         <is>
           <t>Hides and skins,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT43" t="n">
+      <c r="IW43" t="n">
         <v>62</v>
       </c>
     </row>
@@ -34736,17 +35129,26 @@
       <c r="IQ44" t="n">
         <v>400</v>
       </c>
-      <c r="IR44" t="inlineStr">
+      <c r="IR44" t="n">
+        <v>384</v>
+      </c>
+      <c r="IS44" t="n">
+        <v>404</v>
+      </c>
+      <c r="IT44" t="n">
+        <v>412</v>
+      </c>
+      <c r="IU44" t="inlineStr">
         <is>
           <t>AIRPEXCSB</t>
         </is>
       </c>
-      <c r="IS44" t="inlineStr">
+      <c r="IV44" t="inlineStr">
         <is>
           <t>Industrial rubber products,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT44" t="n">
+      <c r="IW44" t="n">
         <v>63</v>
       </c>
     </row>
@@ -35506,17 +35908,26 @@
       <c r="IQ45" t="n">
         <v>2558</v>
       </c>
-      <c r="IR45" t="inlineStr">
+      <c r="IR45" t="n">
+        <v>2590</v>
+      </c>
+      <c r="IS45" t="n">
+        <v>2646</v>
+      </c>
+      <c r="IT45" t="n">
+        <v>2636</v>
+      </c>
+      <c r="IU45" t="inlineStr">
         <is>
           <t>AOISEXCSB</t>
         </is>
       </c>
-      <c r="IS45" t="inlineStr">
+      <c r="IV45" t="inlineStr">
         <is>
           <t>Other industrial supplies,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT45" t="n">
+      <c r="IW45" t="n">
         <v>64</v>
       </c>
     </row>
@@ -36276,17 +36687,26 @@
       <c r="IQ46" t="n">
         <v>866</v>
       </c>
-      <c r="IR46" t="inlineStr">
+      <c r="IR46" t="n">
+        <v>916</v>
+      </c>
+      <c r="IS46" t="n">
+        <v>904</v>
+      </c>
+      <c r="IT46" t="n">
+        <v>930</v>
+      </c>
+      <c r="IU46" t="inlineStr">
         <is>
           <t>AISMEXCSB</t>
         </is>
       </c>
-      <c r="IS46" t="inlineStr">
+      <c r="IV46" t="inlineStr">
         <is>
           <t>Iron and steel mill products,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT46" t="n">
+      <c r="IW46" t="n">
         <v>66</v>
       </c>
     </row>
@@ -37046,17 +37466,26 @@
       <c r="IQ47" t="n">
         <v>565</v>
       </c>
-      <c r="IR47" t="inlineStr">
+      <c r="IR47" t="n">
+        <v>537</v>
+      </c>
+      <c r="IS47" t="n">
+        <v>600</v>
+      </c>
+      <c r="IT47" t="n">
+        <v>607</v>
+      </c>
+      <c r="IU47" t="inlineStr">
         <is>
           <t>AIRSEXCSB</t>
         </is>
       </c>
-      <c r="IS47" t="inlineStr">
+      <c r="IV47" t="inlineStr">
         <is>
           <t>Iron and steel products, n.e.c.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT47" t="n">
+      <c r="IW47" t="n">
         <v>67</v>
       </c>
     </row>
@@ -37816,17 +38245,26 @@
       <c r="IQ48" t="n">
         <v>68</v>
       </c>
-      <c r="IR48" t="inlineStr">
+      <c r="IR48" t="n">
+        <v>66</v>
+      </c>
+      <c r="IS48" t="n">
+        <v>71</v>
+      </c>
+      <c r="IT48" t="n">
+        <v>62</v>
+      </c>
+      <c r="IU48" t="inlineStr">
         <is>
           <t>ALTFEXCSB</t>
         </is>
       </c>
-      <c r="IS48" t="inlineStr">
+      <c r="IV48" t="inlineStr">
         <is>
           <t>Leather and furs,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT48" t="n">
+      <c r="IW48" t="n">
         <v>68</v>
       </c>
     </row>
@@ -38586,17 +39024,26 @@
       <c r="IQ49" t="n">
         <v>582</v>
       </c>
-      <c r="IR49" t="inlineStr">
+      <c r="IR49" t="n">
+        <v>535</v>
+      </c>
+      <c r="IS49" t="n">
+        <v>526</v>
+      </c>
+      <c r="IT49" t="n">
+        <v>509</v>
+      </c>
+      <c r="IU49" t="inlineStr">
         <is>
           <t>ALLBEXCSB</t>
         </is>
       </c>
-      <c r="IS49" t="inlineStr">
+      <c r="IV49" t="inlineStr">
         <is>
           <t>Logs and lumber,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT49" t="n">
+      <c r="IW49" t="n">
         <v>69</v>
       </c>
     </row>
@@ -39356,17 +39803,26 @@
       <c r="IQ50" t="n">
         <v>550</v>
       </c>
-      <c r="IR50" t="inlineStr">
+      <c r="IR50" t="n">
+        <v>533</v>
+      </c>
+      <c r="IS50" t="n">
+        <v>561</v>
+      </c>
+      <c r="IT50" t="n">
+        <v>541</v>
+      </c>
+      <c r="IU50" t="inlineStr">
         <is>
           <t>AMMCEXCSB</t>
         </is>
       </c>
-      <c r="IS50" t="inlineStr">
+      <c r="IV50" t="inlineStr">
         <is>
           <t>Manmade cloth,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT50" t="n">
+      <c r="IW50" t="n">
         <v>71</v>
       </c>
     </row>
@@ -40126,17 +40582,26 @@
       <c r="IQ51" t="n">
         <v>923</v>
       </c>
-      <c r="IR51" t="inlineStr">
+      <c r="IR51" t="n">
+        <v>980</v>
+      </c>
+      <c r="IS51" t="n">
+        <v>1067</v>
+      </c>
+      <c r="IT51" t="n">
+        <v>768</v>
+      </c>
+      <c r="IU51" t="inlineStr">
         <is>
           <t>AMGCEXCSB</t>
         </is>
       </c>
-      <c r="IS51" t="inlineStr">
+      <c r="IV51" t="inlineStr">
         <is>
           <t>Metallurgical grade coal,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT51" t="n">
+      <c r="IW51" t="n">
         <v>73</v>
       </c>
     </row>
@@ -40896,17 +41361,26 @@
       <c r="IQ52" t="n">
         <v>598</v>
       </c>
-      <c r="IR52" t="inlineStr">
+      <c r="IR52" t="n">
+        <v>593</v>
+      </c>
+      <c r="IS52" t="n">
+        <v>626</v>
+      </c>
+      <c r="IT52" t="n">
+        <v>590</v>
+      </c>
+      <c r="IU52" t="inlineStr">
         <is>
           <t>AMSMEXCSB</t>
         </is>
       </c>
-      <c r="IS52" t="inlineStr">
+      <c r="IV52" t="inlineStr">
         <is>
           <t>Mineral supplies-manufactured,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT52" t="n">
+      <c r="IW52" t="n">
         <v>74</v>
       </c>
     </row>
@@ -41664,19 +42138,28 @@
         <v>2657</v>
       </c>
       <c r="IQ53" t="n">
-        <v>3431</v>
-      </c>
-      <c r="IR53" t="inlineStr">
+        <v>3406</v>
+      </c>
+      <c r="IR53" t="n">
+        <v>3330</v>
+      </c>
+      <c r="IS53" t="n">
+        <v>2787</v>
+      </c>
+      <c r="IT53" t="n">
+        <v>2849</v>
+      </c>
+      <c r="IU53" t="inlineStr">
         <is>
           <t>ANGLEXCSB</t>
         </is>
       </c>
-      <c r="IS53" t="inlineStr">
+      <c r="IV53" t="inlineStr">
         <is>
           <t>Liquified petroleum gases,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT53" t="n">
+      <c r="IW53" t="n">
         <v>75</v>
       </c>
     </row>
@@ -42436,17 +42919,26 @@
       <c r="IQ54" t="n">
         <v>1162</v>
       </c>
-      <c r="IR54" t="inlineStr">
+      <c r="IR54" t="n">
+        <v>1172</v>
+      </c>
+      <c r="IS54" t="n">
+        <v>1180</v>
+      </c>
+      <c r="IT54" t="n">
+        <v>1177</v>
+      </c>
+      <c r="IU54" t="inlineStr">
         <is>
           <t>ANWPEXCSB</t>
         </is>
       </c>
-      <c r="IS54" t="inlineStr">
+      <c r="IV54" t="inlineStr">
         <is>
           <t>Newsprint,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT54" t="n">
+      <c r="IW54" t="n">
         <v>77</v>
       </c>
     </row>
@@ -43206,17 +43698,26 @@
       <c r="IQ55" t="n">
         <v>876</v>
       </c>
-      <c r="IR55" t="inlineStr">
+      <c r="IR55" t="n">
+        <v>639</v>
+      </c>
+      <c r="IS55" t="n">
+        <v>610</v>
+      </c>
+      <c r="IT55" t="n">
+        <v>561</v>
+      </c>
+      <c r="IU55" t="inlineStr">
         <is>
           <t>AONMEXCSB</t>
         </is>
       </c>
-      <c r="IS55" t="inlineStr">
+      <c r="IV55" t="inlineStr">
         <is>
           <t>Nonferrous metals, other,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT55" t="n">
+      <c r="IW55" t="n">
         <v>79</v>
       </c>
     </row>
@@ -43976,17 +44477,26 @@
       <c r="IQ56" t="n">
         <v>89</v>
       </c>
-      <c r="IR56" t="inlineStr">
+      <c r="IR56" t="n">
+        <v>83</v>
+      </c>
+      <c r="IS56" t="n">
+        <v>88</v>
+      </c>
+      <c r="IT56" t="n">
+        <v>47</v>
+      </c>
+      <c r="IU56" t="inlineStr">
         <is>
           <t>ANMMEXCSB</t>
         </is>
       </c>
-      <c r="IS56" t="inlineStr">
+      <c r="IV56" t="inlineStr">
         <is>
           <t>Nonmetallic minerals,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT56" t="n">
+      <c r="IW56" t="n">
         <v>80</v>
       </c>
     </row>
@@ -44746,17 +45256,26 @@
       <c r="IQ57" t="n">
         <v>2657</v>
       </c>
-      <c r="IR57" t="inlineStr">
+      <c r="IR57" t="n">
+        <v>1299</v>
+      </c>
+      <c r="IS57" t="n">
+        <v>2453</v>
+      </c>
+      <c r="IT57" t="n">
+        <v>2271</v>
+      </c>
+      <c r="IU57" t="inlineStr">
         <is>
           <t>ANMGEXCSB</t>
         </is>
       </c>
-      <c r="IS57" t="inlineStr">
+      <c r="IV57" t="inlineStr">
         <is>
           <t>Nonmonetary gold,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT57" t="n">
+      <c r="IW57" t="n">
         <v>81</v>
       </c>
     </row>
@@ -45516,17 +46035,26 @@
       <c r="IQ58" t="n">
         <v>44</v>
       </c>
-      <c r="IR58" t="inlineStr">
+      <c r="IR58" t="n">
+        <v>40</v>
+      </c>
+      <c r="IS58" t="n">
+        <v>42</v>
+      </c>
+      <c r="IT58" t="n">
+        <v>43</v>
+      </c>
+      <c r="IU58" t="inlineStr">
         <is>
           <t>ANFTEXCSB</t>
         </is>
       </c>
-      <c r="IS58" t="inlineStr">
+      <c r="IV58" t="inlineStr">
         <is>
           <t>Nontextile floor tiles,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT58" t="n">
+      <c r="IW58" t="n">
         <v>82</v>
       </c>
     </row>
@@ -46286,17 +46814,26 @@
       <c r="IQ59" t="n">
         <v>80</v>
       </c>
-      <c r="IR59" t="inlineStr">
+      <c r="IR59" t="n">
+        <v>44</v>
+      </c>
+      <c r="IS59" t="n">
+        <v>46</v>
+      </c>
+      <c r="IT59" t="n">
+        <v>36</v>
+      </c>
+      <c r="IU59" t="inlineStr">
         <is>
           <t>ANUFEXCSB</t>
         </is>
       </c>
-      <c r="IS59" t="inlineStr">
+      <c r="IV59" t="inlineStr">
         <is>
           <t>Nuclear fuel materials,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT59" t="n">
+      <c r="IW59" t="n">
         <v>83</v>
       </c>
     </row>
@@ -47054,19 +47591,28 @@
         <v>5251</v>
       </c>
       <c r="IQ60" t="n">
-        <v>6050</v>
-      </c>
-      <c r="IR60" t="inlineStr">
+        <v>6043</v>
+      </c>
+      <c r="IR60" t="n">
+        <v>6277</v>
+      </c>
+      <c r="IS60" t="n">
+        <v>5812</v>
+      </c>
+      <c r="IT60" t="n">
+        <v>6044</v>
+      </c>
+      <c r="IU60" t="inlineStr">
         <is>
           <t>AOPPEXCSB</t>
         </is>
       </c>
-      <c r="IS60" t="inlineStr">
+      <c r="IV60" t="inlineStr">
         <is>
           <t>Petroleum products, other,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT60" t="n">
+      <c r="IW60" t="n">
         <v>85</v>
       </c>
     </row>
@@ -47824,19 +48370,28 @@
         <v>3756</v>
       </c>
       <c r="IQ61" t="n">
-        <v>3848</v>
-      </c>
-      <c r="IR61" t="inlineStr">
+        <v>3842</v>
+      </c>
+      <c r="IR61" t="n">
+        <v>4010</v>
+      </c>
+      <c r="IS61" t="n">
+        <v>3825</v>
+      </c>
+      <c r="IT61" t="n">
+        <v>4056</v>
+      </c>
+      <c r="IU61" t="inlineStr">
         <is>
           <t>APLAEXCSB</t>
         </is>
       </c>
-      <c r="IS61" t="inlineStr">
+      <c r="IV61" t="inlineStr">
         <is>
           <t>Plastic materials,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT61" t="n">
+      <c r="IW61" t="n">
         <v>86</v>
       </c>
     </row>
@@ -48596,17 +49151,26 @@
       <c r="IQ62" t="n">
         <v>1810</v>
       </c>
-      <c r="IR62" t="inlineStr">
+      <c r="IR62" t="n">
+        <v>1711</v>
+      </c>
+      <c r="IS62" t="n">
+        <v>1745</v>
+      </c>
+      <c r="IT62" t="n">
+        <v>1547</v>
+      </c>
+      <c r="IU62" t="inlineStr">
         <is>
           <t>AOPMEXCSB</t>
         </is>
       </c>
-      <c r="IS62" t="inlineStr">
+      <c r="IV62" t="inlineStr">
         <is>
           <t>Other precious metals,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT62" t="n">
+      <c r="IW62" t="n">
         <v>88</v>
       </c>
     </row>
@@ -49366,17 +49930,26 @@
       <c r="IQ63" t="n">
         <v>859</v>
       </c>
-      <c r="IR63" t="inlineStr">
+      <c r="IR63" t="n">
+        <v>872</v>
+      </c>
+      <c r="IS63" t="n">
+        <v>783</v>
+      </c>
+      <c r="IT63" t="n">
+        <v>828</v>
+      </c>
+      <c r="IU63" t="inlineStr">
         <is>
           <t>APWPEXCSB</t>
         </is>
       </c>
-      <c r="IS63" t="inlineStr">
+      <c r="IV63" t="inlineStr">
         <is>
           <t>Pulpwood and woodpulp,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT63" t="n">
+      <c r="IW63" t="n">
         <v>89</v>
       </c>
     </row>
@@ -50136,17 +50709,26 @@
       <c r="IQ64" t="n">
         <v>406</v>
       </c>
-      <c r="IR64" t="inlineStr">
+      <c r="IR64" t="n">
+        <v>410</v>
+      </c>
+      <c r="IS64" t="n">
+        <v>437</v>
+      </c>
+      <c r="IT64" t="n">
+        <v>429</v>
+      </c>
+      <c r="IU64" t="inlineStr">
         <is>
           <t>ASMWEXCSB</t>
         </is>
       </c>
-      <c r="IS64" t="inlineStr">
+      <c r="IV64" t="inlineStr">
         <is>
           <t>Shingles, molding and wallboard,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT64" t="n">
+      <c r="IW64" t="n">
         <v>90</v>
       </c>
     </row>
@@ -50906,17 +51488,26 @@
       <c r="IQ65" t="n">
         <v>916</v>
       </c>
-      <c r="IR65" t="inlineStr">
+      <c r="IR65" t="n">
+        <v>820</v>
+      </c>
+      <c r="IS65" t="n">
+        <v>791</v>
+      </c>
+      <c r="IT65" t="n">
+        <v>932</v>
+      </c>
+      <c r="IU65" t="inlineStr">
         <is>
           <t>ASMMEXCSB</t>
         </is>
       </c>
-      <c r="IS65" t="inlineStr">
+      <c r="IV65" t="inlineStr">
         <is>
           <t>Steelmaking materials,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT65" t="n">
+      <c r="IW65" t="n">
         <v>91</v>
       </c>
     </row>
@@ -51676,17 +52267,26 @@
       <c r="IQ66" t="n">
         <v>312</v>
       </c>
-      <c r="IR66" t="inlineStr">
+      <c r="IR66" t="n">
+        <v>324</v>
+      </c>
+      <c r="IS66" t="n">
+        <v>291</v>
+      </c>
+      <c r="IT66" t="n">
+        <v>305</v>
+      </c>
+      <c r="IU66" t="inlineStr">
         <is>
           <t>ASRPEXCSB</t>
         </is>
       </c>
-      <c r="IS66" t="inlineStr">
+      <c r="IV66" t="inlineStr">
         <is>
           <t>Synthetic rubber-primary,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT66" t="n">
+      <c r="IW66" t="n">
         <v>95</v>
       </c>
     </row>
@@ -52446,17 +53046,26 @@
       <c r="IQ67" t="n">
         <v>48</v>
       </c>
-      <c r="IR67" t="inlineStr">
+      <c r="IR67" t="n">
+        <v>47</v>
+      </c>
+      <c r="IS67" t="n">
+        <v>39</v>
+      </c>
+      <c r="IT67" t="n">
+        <v>48</v>
+      </c>
+      <c r="IU67" t="inlineStr">
         <is>
           <t>ATBUEXCSB</t>
         </is>
       </c>
-      <c r="IS67" t="inlineStr">
+      <c r="IV67" t="inlineStr">
         <is>
           <t>Tobacco, waxes, etc.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT67" t="n">
+      <c r="IW67" t="n">
         <v>97</v>
       </c>
     </row>
@@ -53216,17 +53825,26 @@
       <c r="IQ68" t="n">
         <v>120</v>
       </c>
-      <c r="IR68" t="inlineStr">
+      <c r="IR68" t="n">
+        <v>113</v>
+      </c>
+      <c r="IS68" t="n">
+        <v>113</v>
+      </c>
+      <c r="IT68" t="n">
+        <v>118</v>
+      </c>
+      <c r="IU68" t="inlineStr">
         <is>
           <t>AWSMEXCSB</t>
         </is>
       </c>
-      <c r="IS68" t="inlineStr">
+      <c r="IV68" t="inlineStr">
         <is>
           <t>Wood supplies, manufactured,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT68" t="n">
+      <c r="IW68" t="n">
         <v>98</v>
       </c>
     </row>
@@ -53984,19 +54602,28 @@
         <v>42283</v>
       </c>
       <c r="IQ69" t="n">
-        <v>45356</v>
-      </c>
-      <c r="IR69" t="inlineStr">
+        <v>45353</v>
+      </c>
+      <c r="IR69" t="n">
+        <v>44133</v>
+      </c>
+      <c r="IS69" t="n">
+        <v>45023</v>
+      </c>
+      <c r="IT69" t="n">
+        <v>46113</v>
+      </c>
+      <c r="IU69" t="inlineStr">
         <is>
           <t>ACPGEXCSB</t>
         </is>
       </c>
-      <c r="IS69" t="inlineStr">
+      <c r="IV69" t="inlineStr">
         <is>
           <t>Capital Goods,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT69" t="n">
+      <c r="IW69" t="n">
         <v>101</v>
       </c>
     </row>
@@ -54756,17 +55383,26 @@
       <c r="IQ70" t="n">
         <v>699</v>
       </c>
-      <c r="IR70" t="inlineStr">
+      <c r="IR70" t="n">
+        <v>673</v>
+      </c>
+      <c r="IS70" t="n">
+        <v>580</v>
+      </c>
+      <c r="IT70" t="n">
+        <v>674</v>
+      </c>
+      <c r="IU70" t="inlineStr">
         <is>
           <t>AAMEEXCSB</t>
         </is>
       </c>
-      <c r="IS70" t="inlineStr">
+      <c r="IV70" t="inlineStr">
         <is>
           <t>Agricultural machinery and equipment,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT70" t="n">
+      <c r="IW70" t="n">
         <v>102</v>
       </c>
     </row>
@@ -55526,17 +56162,26 @@
       <c r="IQ71" t="n">
         <v>181</v>
       </c>
-      <c r="IR71" t="inlineStr">
+      <c r="IR71" t="n">
+        <v>156</v>
+      </c>
+      <c r="IS71" t="n">
+        <v>169</v>
+      </c>
+      <c r="IT71" t="n">
+        <v>168</v>
+      </c>
+      <c r="IU71" t="inlineStr">
         <is>
           <t>ABMEEXCSB</t>
         </is>
       </c>
-      <c r="IS71" t="inlineStr">
+      <c r="IV71" t="inlineStr">
         <is>
           <t>Business machines and equipment,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT71" t="n">
+      <c r="IW71" t="n">
         <v>103</v>
       </c>
     </row>
@@ -56296,17 +56941,26 @@
       <c r="IQ72" t="n">
         <v>2286</v>
       </c>
-      <c r="IR72" t="inlineStr">
+      <c r="IR72" t="n">
+        <v>2451</v>
+      </c>
+      <c r="IS72" t="n">
+        <v>2675</v>
+      </c>
+      <c r="IT72" t="n">
+        <v>3120</v>
+      </c>
+      <c r="IU72" t="inlineStr">
         <is>
           <t>ACVAEXCSB</t>
         </is>
       </c>
-      <c r="IS72" t="inlineStr">
+      <c r="IV72" t="inlineStr">
         <is>
           <t>Civilian aircraft,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT72" t="n">
+      <c r="IW72" t="n">
         <v>104</v>
       </c>
     </row>
@@ -57066,17 +57720,26 @@
       <c r="IQ73" t="n">
         <v>49</v>
       </c>
-      <c r="IR73" t="inlineStr">
+      <c r="IR73" t="n">
+        <v>17</v>
+      </c>
+      <c r="IS73" t="n">
+        <v>24</v>
+      </c>
+      <c r="IT73" t="n">
+        <v>22</v>
+      </c>
+      <c r="IU73" t="inlineStr">
         <is>
           <t>AOCVEXCSB</t>
         </is>
       </c>
-      <c r="IS73" t="inlineStr">
+      <c r="IV73" t="inlineStr">
         <is>
           <t>Commercial vessels, other,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT73" t="n">
+      <c r="IW73" t="n">
         <v>105</v>
       </c>
     </row>
@@ -57836,17 +58499,26 @@
       <c r="IQ74" t="n">
         <v>2441</v>
       </c>
-      <c r="IR74" t="inlineStr">
+      <c r="IR74" t="n">
+        <v>2568</v>
+      </c>
+      <c r="IS74" t="n">
+        <v>2503</v>
+      </c>
+      <c r="IT74" t="n">
+        <v>2522</v>
+      </c>
+      <c r="IU74" t="inlineStr">
         <is>
           <t>ACACEXCSB</t>
         </is>
       </c>
-      <c r="IS74" t="inlineStr">
+      <c r="IV74" t="inlineStr">
         <is>
           <t>Computer accessories,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT74" t="n">
+      <c r="IW74" t="n">
         <v>106</v>
       </c>
     </row>
@@ -58606,17 +59278,26 @@
       <c r="IQ75" t="n">
         <v>1582</v>
       </c>
-      <c r="IR75" t="inlineStr">
+      <c r="IR75" t="n">
+        <v>1475</v>
+      </c>
+      <c r="IS75" t="n">
+        <v>1478</v>
+      </c>
+      <c r="IT75" t="n">
+        <v>1544</v>
+      </c>
+      <c r="IU75" t="inlineStr">
         <is>
           <t>ACPTEXCSB</t>
         </is>
       </c>
-      <c r="IS75" t="inlineStr">
+      <c r="IV75" t="inlineStr">
         <is>
           <t>Computers,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT75" t="n">
+      <c r="IW75" t="n">
         <v>107</v>
       </c>
     </row>
@@ -59376,17 +60057,26 @@
       <c r="IQ76" t="n">
         <v>214</v>
       </c>
-      <c r="IR76" t="inlineStr">
+      <c r="IR76" t="n">
+        <v>201</v>
+      </c>
+      <c r="IS76" t="n">
+        <v>191</v>
+      </c>
+      <c r="IT76" t="n">
+        <v>214</v>
+      </c>
+      <c r="IU76" t="inlineStr">
         <is>
           <t>ADRLEXCSB</t>
         </is>
       </c>
-      <c r="IS76" t="inlineStr">
+      <c r="IV76" t="inlineStr">
         <is>
           <t>Drilling and oilfield equipment,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT76" t="n">
+      <c r="IW76" t="n">
         <v>108</v>
       </c>
     </row>
@@ -60144,19 +60834,28 @@
         <v>3643</v>
       </c>
       <c r="IQ77" t="n">
-        <v>3710</v>
-      </c>
-      <c r="IR77" t="inlineStr">
+        <v>3704</v>
+      </c>
+      <c r="IR77" t="n">
+        <v>3581</v>
+      </c>
+      <c r="IS77" t="n">
+        <v>3831</v>
+      </c>
+      <c r="IT77" t="n">
+        <v>3806</v>
+      </c>
+      <c r="IU77" t="inlineStr">
         <is>
           <t>AEAPEXCSB</t>
         </is>
       </c>
-      <c r="IS77" t="inlineStr">
+      <c r="IV77" t="inlineStr">
         <is>
           <t>Electric apparatus,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT77" t="n">
+      <c r="IW77" t="n">
         <v>109</v>
       </c>
     </row>
@@ -60914,19 +61613,28 @@
         <v>3087</v>
       </c>
       <c r="IQ78" t="n">
-        <v>3467</v>
-      </c>
-      <c r="IR78" t="inlineStr">
+        <v>3466</v>
+      </c>
+      <c r="IR78" t="n">
+        <v>3230</v>
+      </c>
+      <c r="IS78" t="n">
+        <v>3862</v>
+      </c>
+      <c r="IT78" t="n">
+        <v>3319</v>
+      </c>
+      <c r="IU78" t="inlineStr">
         <is>
           <t>AECAEXCSB</t>
         </is>
       </c>
-      <c r="IS78" t="inlineStr">
+      <c r="IV78" t="inlineStr">
         <is>
           <t>Engines-civilian aircraft,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT78" t="n">
+      <c r="IW78" t="n">
         <v>110</v>
       </c>
     </row>
@@ -61686,17 +62394,26 @@
       <c r="IQ79" t="n">
         <v>853</v>
       </c>
-      <c r="IR79" t="inlineStr">
+      <c r="IR79" t="n">
+        <v>869</v>
+      </c>
+      <c r="IS79" t="n">
+        <v>895</v>
+      </c>
+      <c r="IT79" t="n">
+        <v>969</v>
+      </c>
+      <c r="IU79" t="inlineStr">
         <is>
           <t>AEXCEXCSB</t>
         </is>
       </c>
-      <c r="IS79" t="inlineStr">
+      <c r="IV79" t="inlineStr">
         <is>
           <t>Excavating machinery,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT79" t="n">
+      <c r="IW79" t="n">
         <v>111</v>
       </c>
     </row>
@@ -62456,17 +63173,26 @@
       <c r="IQ80" t="n">
         <v>302</v>
       </c>
-      <c r="IR80" t="inlineStr">
+      <c r="IR80" t="n">
+        <v>333</v>
+      </c>
+      <c r="IS80" t="n">
+        <v>297</v>
+      </c>
+      <c r="IT80" t="n">
+        <v>296</v>
+      </c>
+      <c r="IU80" t="inlineStr">
         <is>
           <t>AFTMEXCSB</t>
         </is>
       </c>
-      <c r="IS80" t="inlineStr">
+      <c r="IV80" t="inlineStr">
         <is>
           <t>Food and tobacco machinery,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT80" t="n">
+      <c r="IW80" t="n">
         <v>112</v>
       </c>
     </row>
@@ -63224,19 +63950,28 @@
         <v>1022</v>
       </c>
       <c r="IQ81" t="n">
-        <v>1032</v>
-      </c>
-      <c r="IR81" t="inlineStr">
+        <v>1031</v>
+      </c>
+      <c r="IR81" t="n">
+        <v>1061</v>
+      </c>
+      <c r="IS81" t="n">
+        <v>1005</v>
+      </c>
+      <c r="IT81" t="n">
+        <v>1137</v>
+      </c>
+      <c r="IU81" t="inlineStr">
         <is>
           <t>AGNAEXCSB</t>
         </is>
       </c>
-      <c r="IS81" t="inlineStr">
+      <c r="IV81" t="inlineStr">
         <is>
           <t>Generators and accessories,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT81" t="n">
+      <c r="IW81" t="n">
         <v>113</v>
       </c>
     </row>
@@ -63996,17 +64731,26 @@
       <c r="IQ82" t="n">
         <v>1982</v>
       </c>
-      <c r="IR82" t="inlineStr">
+      <c r="IR82" t="n">
+        <v>1889</v>
+      </c>
+      <c r="IS82" t="n">
+        <v>2072</v>
+      </c>
+      <c r="IT82" t="n">
+        <v>2097</v>
+      </c>
+      <c r="IU82" t="inlineStr">
         <is>
           <t>AIDEEXCSB</t>
         </is>
       </c>
-      <c r="IS82" t="inlineStr">
+      <c r="IV82" t="inlineStr">
         <is>
           <t>Industrial engines,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT82" t="n">
+      <c r="IW82" t="n">
         <v>114</v>
       </c>
     </row>
@@ -64766,17 +65510,26 @@
       <c r="IQ83" t="n">
         <v>6457</v>
       </c>
-      <c r="IR83" t="inlineStr">
+      <c r="IR83" t="n">
+        <v>6047</v>
+      </c>
+      <c r="IS83" t="n">
+        <v>5762</v>
+      </c>
+      <c r="IT83" t="n">
+        <v>5761</v>
+      </c>
+      <c r="IU83" t="inlineStr">
         <is>
           <t>AOIMEXCSB</t>
         </is>
       </c>
-      <c r="IS83" t="inlineStr">
+      <c r="IV83" t="inlineStr">
         <is>
           <t>Industrial machines, other,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT83" t="n">
+      <c r="IW83" t="n">
         <v>115</v>
       </c>
     </row>
@@ -65536,17 +66289,26 @@
       <c r="IQ84" t="n">
         <v>1100</v>
       </c>
-      <c r="IR84" t="inlineStr">
+      <c r="IR84" t="n">
+        <v>1130</v>
+      </c>
+      <c r="IS84" t="n">
+        <v>1092</v>
+      </c>
+      <c r="IT84" t="n">
+        <v>1172</v>
+      </c>
+      <c r="IU84" t="inlineStr">
         <is>
           <t>ALABEXCSB</t>
         </is>
       </c>
-      <c r="IS84" t="inlineStr">
+      <c r="IV84" t="inlineStr">
         <is>
           <t>Laboratory testing instruments,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT84" t="n">
+      <c r="IW84" t="n">
         <v>116</v>
       </c>
     </row>
@@ -66306,17 +67068,26 @@
       <c r="IQ85" t="n">
         <v>97</v>
       </c>
-      <c r="IR85" t="inlineStr">
+      <c r="IR85" t="n">
+        <v>94</v>
+      </c>
+      <c r="IS85" t="n">
+        <v>93</v>
+      </c>
+      <c r="IT85" t="n">
+        <v>77</v>
+      </c>
+      <c r="IU85" t="inlineStr">
         <is>
           <t>AMEPEXCSB</t>
         </is>
       </c>
-      <c r="IS85" t="inlineStr">
+      <c r="IV85" t="inlineStr">
         <is>
           <t>Marine engines and parts,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT85" t="n">
+      <c r="IW85" t="n">
         <v>117</v>
       </c>
     </row>
@@ -67076,17 +67847,26 @@
       <c r="IQ86" t="n">
         <v>1018</v>
       </c>
-      <c r="IR86" t="inlineStr">
+      <c r="IR86" t="n">
+        <v>980</v>
+      </c>
+      <c r="IS86" t="n">
+        <v>983</v>
+      </c>
+      <c r="IT86" t="n">
+        <v>1056</v>
+      </c>
+      <c r="IU86" t="inlineStr">
         <is>
           <t>AMHEEXCSB</t>
         </is>
       </c>
-      <c r="IS86" t="inlineStr">
+      <c r="IV86" t="inlineStr">
         <is>
           <t>Materials handling equipment,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT86" t="n">
+      <c r="IW86" t="n">
         <v>118</v>
       </c>
     </row>
@@ -67846,17 +68626,26 @@
       <c r="IQ87" t="n">
         <v>2003</v>
       </c>
-      <c r="IR87" t="inlineStr">
+      <c r="IR87" t="n">
+        <v>2003</v>
+      </c>
+      <c r="IS87" t="n">
+        <v>2094</v>
+      </c>
+      <c r="IT87" t="n">
+        <v>2217</v>
+      </c>
+      <c r="IU87" t="inlineStr">
         <is>
           <t>AMTCEXCSB</t>
         </is>
       </c>
-      <c r="IS87" t="inlineStr">
+      <c r="IV87" t="inlineStr">
         <is>
           <t>Measuring, testing and control instruments,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT87" t="n">
+      <c r="IW87" t="n">
         <v>119</v>
       </c>
     </row>
@@ -68614,19 +69403,28 @@
         <v>3360</v>
       </c>
       <c r="IQ88" t="n">
-        <v>3249</v>
-      </c>
-      <c r="IR88" t="inlineStr">
+        <v>3248</v>
+      </c>
+      <c r="IR88" t="n">
+        <v>3354</v>
+      </c>
+      <c r="IS88" t="n">
+        <v>3326</v>
+      </c>
+      <c r="IT88" t="n">
+        <v>3347</v>
+      </c>
+      <c r="IU88" t="inlineStr">
         <is>
           <t>AMEDEXCSB</t>
         </is>
       </c>
-      <c r="IS88" t="inlineStr">
+      <c r="IV88" t="inlineStr">
         <is>
           <t>Medical equipment,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT88" t="n">
+      <c r="IW88" t="n">
         <v>120</v>
       </c>
     </row>
@@ -69386,17 +70184,26 @@
       <c r="IQ89" t="n">
         <v>501</v>
       </c>
-      <c r="IR89" t="inlineStr">
+      <c r="IR89" t="n">
+        <v>535</v>
+      </c>
+      <c r="IS89" t="n">
+        <v>542</v>
+      </c>
+      <c r="IT89" t="n">
+        <v>536</v>
+      </c>
+      <c r="IU89" t="inlineStr">
         <is>
           <t>AMMTEXCSB</t>
         </is>
       </c>
-      <c r="IS89" t="inlineStr">
+      <c r="IV89" t="inlineStr">
         <is>
           <t>Metalworking machine tools,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT89" t="n">
+      <c r="IW89" t="n">
         <v>121</v>
       </c>
     </row>
@@ -70156,17 +70963,26 @@
       <c r="IQ90" t="n">
         <v>259</v>
       </c>
-      <c r="IR90" t="inlineStr">
+      <c r="IR90" t="n">
+        <v>225</v>
+      </c>
+      <c r="IS90" t="n">
+        <v>227</v>
+      </c>
+      <c r="IT90" t="n">
+        <v>283</v>
+      </c>
+      <c r="IU90" t="inlineStr">
         <is>
           <t>ANFPEXCSB</t>
         </is>
       </c>
-      <c r="IS90" t="inlineStr">
+      <c r="IV90" t="inlineStr">
         <is>
           <t>Nonfarming tractors and parts,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT90" t="n">
+      <c r="IW90" t="n">
         <v>122</v>
       </c>
     </row>
@@ -70924,19 +71740,28 @@
         <v>1529</v>
       </c>
       <c r="IQ91" t="n">
-        <v>1595</v>
-      </c>
-      <c r="IR91" t="inlineStr">
+        <v>1601</v>
+      </c>
+      <c r="IR91" t="n">
+        <v>1529</v>
+      </c>
+      <c r="IS91" t="n">
+        <v>1488</v>
+      </c>
+      <c r="IT91" t="n">
+        <v>1613</v>
+      </c>
+      <c r="IU91" t="inlineStr">
         <is>
           <t>APCAEXCSB</t>
         </is>
       </c>
-      <c r="IS91" t="inlineStr">
+      <c r="IV91" t="inlineStr">
         <is>
           <t>Parts-civilian aircraft,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT91" t="n">
+      <c r="IW91" t="n">
         <v>123</v>
       </c>
     </row>
@@ -71694,19 +72519,28 @@
         <v>722</v>
       </c>
       <c r="IQ92" t="n">
-        <v>822</v>
-      </c>
-      <c r="IR92" t="inlineStr">
+        <v>820</v>
+      </c>
+      <c r="IR92" t="n">
+        <v>783</v>
+      </c>
+      <c r="IS92" t="n">
+        <v>792</v>
+      </c>
+      <c r="IT92" t="n">
+        <v>774</v>
+      </c>
+      <c r="IU92" t="inlineStr">
         <is>
           <t>APHSEXCSB</t>
         </is>
       </c>
-      <c r="IS92" t="inlineStr">
+      <c r="IV92" t="inlineStr">
         <is>
           <t>Photo and service industry machinery,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT92" t="n">
+      <c r="IW92" t="n">
         <v>124</v>
       </c>
     </row>
@@ -72466,17 +73300,26 @@
       <c r="IQ93" t="n">
         <v>155</v>
       </c>
-      <c r="IR93" t="inlineStr">
+      <c r="IR93" t="n">
+        <v>170</v>
+      </c>
+      <c r="IS93" t="n">
+        <v>185</v>
+      </c>
+      <c r="IT93" t="n">
+        <v>147</v>
+      </c>
+      <c r="IU93" t="inlineStr">
         <is>
           <t>APPMEXCSB</t>
         </is>
       </c>
-      <c r="IS93" t="inlineStr">
+      <c r="IV93" t="inlineStr">
         <is>
           <t>Pulp and paper machinery,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT93" t="n">
+      <c r="IW93" t="n">
         <v>125</v>
       </c>
     </row>
@@ -73236,17 +74079,26 @@
       <c r="IQ94" t="n">
         <v>281</v>
       </c>
-      <c r="IR94" t="inlineStr">
+      <c r="IR94" t="n">
+        <v>225</v>
+      </c>
+      <c r="IS94" t="n">
+        <v>293</v>
+      </c>
+      <c r="IT94" t="n">
+        <v>265</v>
+      </c>
+      <c r="IU94" t="inlineStr">
         <is>
           <t>ARTEEXCSB</t>
         </is>
       </c>
-      <c r="IS94" t="inlineStr">
+      <c r="IV94" t="inlineStr">
         <is>
           <t>Railway transportation equipment,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT94" t="n">
+      <c r="IW94" t="n">
         <v>126</v>
       </c>
     </row>
@@ -74004,19 +74856,28 @@
         <v>5356</v>
       </c>
       <c r="IQ95" t="n">
-        <v>5631</v>
-      </c>
-      <c r="IR95" t="inlineStr">
+        <v>5630</v>
+      </c>
+      <c r="IR95" t="n">
+        <v>5457</v>
+      </c>
+      <c r="IS95" t="n">
+        <v>5576</v>
+      </c>
+      <c r="IT95" t="n">
+        <v>5694</v>
+      </c>
+      <c r="IU95" t="inlineStr">
         <is>
           <t>ASCDEXCSB</t>
         </is>
       </c>
-      <c r="IS95" t="inlineStr">
+      <c r="IV95" t="inlineStr">
         <is>
           <t>Semiconductors,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT95" t="n">
+      <c r="IW95" t="n">
         <v>127</v>
       </c>
     </row>
@@ -74804,17 +75665,26 @@
       <c r="IQ96" t="n">
         <v>16</v>
       </c>
-      <c r="IR96" t="inlineStr">
+      <c r="IR96" t="n">
+        <v>2</v>
+      </c>
+      <c r="IS96" t="n">
+        <v>2</v>
+      </c>
+      <c r="IT96" t="n">
+        <v>5</v>
+      </c>
+      <c r="IU96" t="inlineStr">
         <is>
           <t>ASPCEXCSB</t>
         </is>
       </c>
-      <c r="IS96" t="inlineStr">
+      <c r="IV96" t="inlineStr">
         <is>
           <t>Spacecraft, excluding military,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT96" t="n">
+      <c r="IW96" t="n">
         <v>128</v>
       </c>
     </row>
@@ -75574,17 +76444,26 @@
       <c r="IQ97" t="n">
         <v>76</v>
       </c>
-      <c r="IR97" t="inlineStr">
+      <c r="IR97" t="n">
+        <v>107</v>
+      </c>
+      <c r="IS97" t="n">
+        <v>67</v>
+      </c>
+      <c r="IT97" t="n">
+        <v>89</v>
+      </c>
+      <c r="IU97" t="inlineStr">
         <is>
           <t>ASPMEXCSB</t>
         </is>
       </c>
-      <c r="IS97" t="inlineStr">
+      <c r="IV97" t="inlineStr">
         <is>
           <t>Specialized mining,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT97" t="n">
+      <c r="IW97" t="n">
         <v>129</v>
       </c>
     </row>
@@ -76342,19 +77221,28 @@
         <v>2612</v>
       </c>
       <c r="IQ98" t="n">
-        <v>2806</v>
-      </c>
-      <c r="IR98" t="inlineStr">
+        <v>2805</v>
+      </c>
+      <c r="IR98" t="n">
+        <v>2531</v>
+      </c>
+      <c r="IS98" t="n">
+        <v>2546</v>
+      </c>
+      <c r="IT98" t="n">
+        <v>2741</v>
+      </c>
+      <c r="IU98" t="inlineStr">
         <is>
           <t>ATELEXCSB</t>
         </is>
       </c>
-      <c r="IS98" t="inlineStr">
+      <c r="IV98" t="inlineStr">
         <is>
           <t>Telecommunications equipment,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT98" t="n">
+      <c r="IW98" t="n">
         <v>130</v>
       </c>
     </row>
@@ -77114,17 +78002,26 @@
       <c r="IQ99" t="n">
         <v>97</v>
       </c>
-      <c r="IR99" t="inlineStr">
+      <c r="IR99" t="n">
+        <v>98</v>
+      </c>
+      <c r="IS99" t="n">
+        <v>76</v>
+      </c>
+      <c r="IT99" t="n">
+        <v>91</v>
+      </c>
+      <c r="IU99" t="inlineStr">
         <is>
           <t>ATSMEXCSB</t>
         </is>
       </c>
-      <c r="IS99" t="inlineStr">
+      <c r="IV99" t="inlineStr">
         <is>
           <t>Textile, sewing machines,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT99" t="n">
+      <c r="IW99" t="n">
         <v>131</v>
       </c>
     </row>
@@ -77924,17 +78821,28 @@
       <c r="IQ100" t="n">
         <v>9</v>
       </c>
-      <c r="IR100" t="inlineStr">
+      <c r="IR100" t="n">
+        <v>1</v>
+      </c>
+      <c r="IS100" t="n">
+        <v>1</v>
+      </c>
+      <c r="IT100" t="inlineStr">
+        <is>
+          <t>(-)</t>
+        </is>
+      </c>
+      <c r="IU100" t="inlineStr">
         <is>
           <t>AVESEXCSB</t>
         </is>
       </c>
-      <c r="IS100" t="inlineStr">
+      <c r="IV100" t="inlineStr">
         <is>
           <t>Vessels, excluding scrap,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT100" t="n">
+      <c r="IW100" t="n">
         <v>132</v>
       </c>
     </row>
@@ -78694,17 +79602,26 @@
       <c r="IQ101" t="n">
         <v>389</v>
       </c>
-      <c r="IR101" t="inlineStr">
+      <c r="IR101" t="n">
+        <v>355</v>
+      </c>
+      <c r="IS101" t="n">
+        <v>294</v>
+      </c>
+      <c r="IT101" t="n">
+        <v>355</v>
+      </c>
+      <c r="IU101" t="inlineStr">
         <is>
           <t>AWGPEXCSB</t>
         </is>
       </c>
-      <c r="IS101" t="inlineStr">
+      <c r="IV101" t="inlineStr">
         <is>
           <t>Wood, glass and plastic,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT101" t="n">
+      <c r="IW101" t="n">
         <v>133</v>
       </c>
     </row>
@@ -79462,19 +80379,28 @@
         <v>10982</v>
       </c>
       <c r="IQ102" t="n">
-        <v>12531</v>
-      </c>
-      <c r="IR102" t="inlineStr">
+        <v>12529</v>
+      </c>
+      <c r="IR102" t="n">
+        <v>12197</v>
+      </c>
+      <c r="IS102" t="n">
+        <v>12995</v>
+      </c>
+      <c r="IT102" t="n">
+        <v>12336</v>
+      </c>
+      <c r="IU102" t="inlineStr">
         <is>
           <t>AAMVEXCSB</t>
         </is>
       </c>
-      <c r="IS102" t="inlineStr">
+      <c r="IV102" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT102" t="n">
+      <c r="IW102" t="n">
         <v>134</v>
       </c>
     </row>
@@ -79876,17 +80802,26 @@
       <c r="IQ103" t="n">
         <v>214</v>
       </c>
-      <c r="IR103" t="inlineStr">
+      <c r="IR103" t="n">
+        <v>247</v>
+      </c>
+      <c r="IS103" t="n">
+        <v>258</v>
+      </c>
+      <c r="IT103" t="n">
+        <v>257</v>
+      </c>
+      <c r="IU103" t="inlineStr">
         <is>
           <t>AATTEXCSB</t>
         </is>
       </c>
-      <c r="IS103" t="inlineStr">
+      <c r="IV103" t="inlineStr">
         <is>
           <t>Automotive tires and tubes,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT103" t="n">
+      <c r="IW103" t="n">
         <v>135</v>
       </c>
     </row>
@@ -80286,19 +81221,28 @@
         <v>22</v>
       </c>
       <c r="IQ104" t="n">
-        <v>20</v>
-      </c>
-      <c r="IR104" t="inlineStr">
+        <v>19</v>
+      </c>
+      <c r="IR104" t="n">
+        <v>19</v>
+      </c>
+      <c r="IS104" t="n">
+        <v>17</v>
+      </c>
+      <c r="IT104" t="n">
+        <v>9</v>
+      </c>
+      <c r="IU104" t="inlineStr">
         <is>
           <t>ABCPEXCSB</t>
         </is>
       </c>
-      <c r="IS104" t="inlineStr">
+      <c r="IV104" t="inlineStr">
         <is>
           <t>Bodies and chassis for passenger cars,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT104" t="n">
+      <c r="IW104" t="n">
         <v>136</v>
       </c>
     </row>
@@ -80698,19 +81642,28 @@
         <v>1448</v>
       </c>
       <c r="IQ105" t="n">
-        <v>1586</v>
-      </c>
-      <c r="IR105" t="inlineStr">
+        <v>1585</v>
+      </c>
+      <c r="IR105" t="n">
+        <v>1668</v>
+      </c>
+      <c r="IS105" t="n">
+        <v>1626</v>
+      </c>
+      <c r="IT105" t="n">
+        <v>1523</v>
+      </c>
+      <c r="IU105" t="inlineStr">
         <is>
           <t>AENPEXCSB</t>
         </is>
       </c>
-      <c r="IS105" t="inlineStr">
+      <c r="IV105" t="inlineStr">
         <is>
           <t>Engines and engine parts,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT105" t="n">
+      <c r="IW105" t="n">
         <v>139</v>
       </c>
     </row>
@@ -81110,19 +82063,28 @@
         <v>3518</v>
       </c>
       <c r="IQ106" t="n">
-        <v>4126</v>
-      </c>
-      <c r="IR106" t="inlineStr">
+        <v>4128</v>
+      </c>
+      <c r="IR106" t="n">
+        <v>4058</v>
+      </c>
+      <c r="IS106" t="n">
+        <v>4380</v>
+      </c>
+      <c r="IT106" t="n">
+        <v>4345</v>
+      </c>
+      <c r="IU106" t="inlineStr">
         <is>
           <t>AOPAEXCSB</t>
         </is>
       </c>
-      <c r="IS106" t="inlineStr">
+      <c r="IV106" t="inlineStr">
         <is>
           <t>Other parts and accessories of vehicles,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT106" t="n">
+      <c r="IW106" t="n">
         <v>140</v>
       </c>
     </row>
@@ -81524,17 +82486,26 @@
       <c r="IQ107" t="n">
         <v>4423</v>
       </c>
-      <c r="IR107" t="inlineStr">
+      <c r="IR107" t="n">
+        <v>3920</v>
+      </c>
+      <c r="IS107" t="n">
+        <v>4670</v>
+      </c>
+      <c r="IT107" t="n">
+        <v>4451</v>
+      </c>
+      <c r="IU107" t="inlineStr">
         <is>
           <t>APSCEXCSB</t>
         </is>
       </c>
-      <c r="IS107" t="inlineStr">
+      <c r="IV107" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT107" t="n">
+      <c r="IW107" t="n">
         <v>141</v>
       </c>
     </row>
@@ -81934,19 +82905,28 @@
         <v>1440</v>
       </c>
       <c r="IQ108" t="n">
-        <v>2163</v>
-      </c>
-      <c r="IR108" t="inlineStr">
+        <v>2159</v>
+      </c>
+      <c r="IR108" t="n">
+        <v>2284</v>
+      </c>
+      <c r="IS108" t="n">
+        <v>2043</v>
+      </c>
+      <c r="IT108" t="n">
+        <v>1750</v>
+      </c>
+      <c r="IU108" t="inlineStr">
         <is>
           <t>ATBVEXCSB</t>
         </is>
       </c>
-      <c r="IS108" t="inlineStr">
+      <c r="IV108" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT108" t="n">
+      <c r="IW108" t="n">
         <v>142</v>
       </c>
     </row>
@@ -82704,19 +83684,28 @@
         <v>19823</v>
       </c>
       <c r="IQ109" t="n">
-        <v>21462</v>
-      </c>
-      <c r="IR109" t="inlineStr">
+        <v>21456</v>
+      </c>
+      <c r="IR109" t="n">
+        <v>20705</v>
+      </c>
+      <c r="IS109" t="n">
+        <v>21946</v>
+      </c>
+      <c r="IT109" t="n">
+        <v>18970</v>
+      </c>
+      <c r="IU109" t="inlineStr">
         <is>
           <t>ACGDEXCSB</t>
         </is>
       </c>
-      <c r="IS109" t="inlineStr">
+      <c r="IV109" t="inlineStr">
         <is>
           <t>Consumer Goods,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT109" t="n">
+      <c r="IW109" t="n">
         <v>143</v>
       </c>
     </row>
@@ -83474,19 +84463,28 @@
         <v>611</v>
       </c>
       <c r="IQ110" t="n">
-        <v>651</v>
-      </c>
-      <c r="IR110" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="IR110" t="n">
+        <v>649</v>
+      </c>
+      <c r="IS110" t="n">
+        <v>775</v>
+      </c>
+      <c r="IT110" t="n">
+        <v>709</v>
+      </c>
+      <c r="IU110" t="inlineStr">
         <is>
           <t>ATAHEXCSB</t>
         </is>
       </c>
-      <c r="IS110" t="inlineStr">
+      <c r="IV110" t="inlineStr">
         <is>
           <t>Apparel and household goods - textile,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT110" t="n">
+      <c r="IW110" t="n">
         <v>145</v>
       </c>
     </row>
@@ -84246,17 +85244,26 @@
       <c r="IQ111" t="n">
         <v>222</v>
       </c>
-      <c r="IR111" t="inlineStr">
+      <c r="IR111" t="n">
+        <v>252</v>
+      </c>
+      <c r="IS111" t="n">
+        <v>266</v>
+      </c>
+      <c r="IT111" t="n">
+        <v>252</v>
+      </c>
+      <c r="IU111" t="inlineStr">
         <is>
           <t>ANTAEXCSB</t>
         </is>
       </c>
-      <c r="IS111" t="inlineStr">
+      <c r="IV111" t="inlineStr">
         <is>
           <t>Apparel and household goods-nontextile,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT111" t="n">
+      <c r="IW111" t="n">
         <v>146</v>
       </c>
     </row>
@@ -85014,19 +86021,28 @@
         <v>827</v>
       </c>
       <c r="IQ112" t="n">
-        <v>1189</v>
-      </c>
-      <c r="IR112" t="inlineStr">
+        <v>1186</v>
+      </c>
+      <c r="IR112" t="n">
+        <v>763</v>
+      </c>
+      <c r="IS112" t="n">
+        <v>806</v>
+      </c>
+      <c r="IT112" t="n">
+        <v>831</v>
+      </c>
+      <c r="IU112" t="inlineStr">
         <is>
           <t>AARTEXCSB</t>
         </is>
       </c>
-      <c r="IS112" t="inlineStr">
+      <c r="IV112" t="inlineStr">
         <is>
           <t>Artwork, antiques, stamps, etc.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT112" t="n">
+      <c r="IW112" t="n">
         <v>149</v>
       </c>
     </row>
@@ -85548,17 +86564,20 @@
       <c r="IO113" t="inlineStr"/>
       <c r="IP113" t="inlineStr"/>
       <c r="IQ113" t="inlineStr"/>
-      <c r="IR113" t="inlineStr">
+      <c r="IR113" t="inlineStr"/>
+      <c r="IS113" t="inlineStr"/>
+      <c r="IT113" t="inlineStr"/>
+      <c r="IU113" t="inlineStr">
         <is>
           <t>AWASEXCSB</t>
         </is>
       </c>
-      <c r="IS113" t="inlineStr">
+      <c r="IV113" t="inlineStr">
         <is>
           <t>Writing and art supplies,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT113" t="n">
+      <c r="IW113" t="n">
         <v>150</v>
       </c>
     </row>
@@ -86318,17 +87337,26 @@
       <c r="IQ114" t="n">
         <v>341</v>
       </c>
-      <c r="IR114" t="inlineStr">
+      <c r="IR114" t="n">
+        <v>333</v>
+      </c>
+      <c r="IS114" t="n">
+        <v>343</v>
+      </c>
+      <c r="IT114" t="n">
+        <v>350</v>
+      </c>
+      <c r="IU114" t="inlineStr">
         <is>
           <t>ABPMEXCSB</t>
         </is>
       </c>
-      <c r="IS114" t="inlineStr">
+      <c r="IV114" t="inlineStr">
         <is>
           <t>Books and printed matter,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT114" t="n">
+      <c r="IW114" t="n">
         <v>151</v>
       </c>
     </row>
@@ -86824,19 +87852,28 @@
         <v>2335</v>
       </c>
       <c r="IQ115" t="n">
-        <v>2537</v>
-      </c>
-      <c r="IR115" t="inlineStr">
+        <v>2536</v>
+      </c>
+      <c r="IR115" t="n">
+        <v>2756</v>
+      </c>
+      <c r="IS115" t="n">
+        <v>2674</v>
+      </c>
+      <c r="IT115" t="n">
+        <v>2497</v>
+      </c>
+      <c r="IU115" t="inlineStr">
         <is>
           <t>ACELEXCSB</t>
         </is>
       </c>
-      <c r="IS115" t="inlineStr">
+      <c r="IV115" t="inlineStr">
         <is>
           <t>Cell phones and other household goods, n.e.c.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT115" t="n">
+      <c r="IW115" t="n">
         <v>153</v>
       </c>
     </row>
@@ -87596,17 +88633,26 @@
       <c r="IQ116" t="n">
         <v>107</v>
       </c>
-      <c r="IR116" t="inlineStr">
+      <c r="IR116" t="n">
+        <v>101</v>
+      </c>
+      <c r="IS116" t="n">
+        <v>108</v>
+      </c>
+      <c r="IT116" t="n">
+        <v>119</v>
+      </c>
+      <c r="IU116" t="inlineStr">
         <is>
           <t>ACCTEXCSB</t>
         </is>
       </c>
-      <c r="IS116" t="inlineStr">
+      <c r="IV116" t="inlineStr">
         <is>
           <t>Cookware, cutlery and tools,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT116" t="n">
+      <c r="IW116" t="n">
         <v>154</v>
       </c>
     </row>
@@ -88366,17 +89412,26 @@
       <c r="IQ117" t="n">
         <v>391</v>
       </c>
-      <c r="IR117" t="inlineStr">
+      <c r="IR117" t="n">
+        <v>396</v>
+      </c>
+      <c r="IS117" t="n">
+        <v>390</v>
+      </c>
+      <c r="IT117" t="n">
+        <v>407</v>
+      </c>
+      <c r="IU117" t="inlineStr">
         <is>
           <t>AFHGEXCSB</t>
         </is>
       </c>
-      <c r="IS117" t="inlineStr">
+      <c r="IV117" t="inlineStr">
         <is>
           <t>Furniture, household goods, etc.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT117" t="n">
+      <c r="IW117" t="n">
         <v>156</v>
       </c>
     </row>
@@ -88898,17 +89953,20 @@
       <c r="IO118" t="inlineStr"/>
       <c r="IP118" t="inlineStr"/>
       <c r="IQ118" t="inlineStr"/>
-      <c r="IR118" t="inlineStr">
+      <c r="IR118" t="inlineStr"/>
+      <c r="IS118" t="inlineStr"/>
+      <c r="IT118" t="inlineStr"/>
+      <c r="IU118" t="inlineStr">
         <is>
           <t>AOHGEXCSB</t>
         </is>
       </c>
-      <c r="IS118" t="inlineStr">
+      <c r="IV118" t="inlineStr">
         <is>
           <t>Other household goods,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT118" t="n">
+      <c r="IW118" t="n">
         <v>157</v>
       </c>
     </row>
@@ -89668,17 +90726,26 @@
       <c r="IQ119" t="n">
         <v>2356</v>
       </c>
-      <c r="IR119" t="inlineStr">
+      <c r="IR119" t="n">
+        <v>1472</v>
+      </c>
+      <c r="IS119" t="n">
+        <v>1431</v>
+      </c>
+      <c r="IT119" t="n">
+        <v>1803</v>
+      </c>
+      <c r="IU119" t="inlineStr">
         <is>
           <t>AGEMEXCSB</t>
         </is>
       </c>
-      <c r="IS119" t="inlineStr">
+      <c r="IV119" t="inlineStr">
         <is>
           <t>Gem diamonds,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT119" t="n">
+      <c r="IW119" t="n">
         <v>158</v>
       </c>
     </row>
@@ -90438,17 +91505,26 @@
       <c r="IQ120" t="n">
         <v>44</v>
       </c>
-      <c r="IR120" t="inlineStr">
+      <c r="IR120" t="n">
+        <v>45</v>
+      </c>
+      <c r="IS120" t="n">
+        <v>47</v>
+      </c>
+      <c r="IT120" t="n">
+        <v>43</v>
+      </c>
+      <c r="IU120" t="inlineStr">
         <is>
           <t>AGCWEXCSB</t>
         </is>
       </c>
-      <c r="IS120" t="inlineStr">
+      <c r="IV120" t="inlineStr">
         <is>
           <t>Glassware and chinaware,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT120" t="n">
+      <c r="IW120" t="n">
         <v>160</v>
       </c>
     </row>
@@ -91208,17 +92284,26 @@
       <c r="IQ121" t="n">
         <v>586</v>
       </c>
-      <c r="IR121" t="inlineStr">
+      <c r="IR121" t="n">
+        <v>579</v>
+      </c>
+      <c r="IS121" t="n">
+        <v>568</v>
+      </c>
+      <c r="IT121" t="n">
+        <v>650</v>
+      </c>
+      <c r="IU121" t="inlineStr">
         <is>
           <t>AAPPEXCSB</t>
         </is>
       </c>
-      <c r="IS121" t="inlineStr">
+      <c r="IV121" t="inlineStr">
         <is>
           <t>Household appliances,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT121" t="n">
+      <c r="IW121" t="n">
         <v>161</v>
       </c>
     </row>
@@ -91978,17 +93063,26 @@
       <c r="IQ122" t="n">
         <v>1059</v>
       </c>
-      <c r="IR122" t="inlineStr">
+      <c r="IR122" t="n">
+        <v>937</v>
+      </c>
+      <c r="IS122" t="n">
+        <v>855</v>
+      </c>
+      <c r="IT122" t="n">
+        <v>850</v>
+      </c>
+      <c r="IU122" t="inlineStr">
         <is>
           <t>AJLREXCSB</t>
         </is>
       </c>
-      <c r="IS122" t="inlineStr">
+      <c r="IV122" t="inlineStr">
         <is>
           <t>Jewelry, etc.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT122" t="n">
+      <c r="IW122" t="n">
         <v>162</v>
       </c>
     </row>
@@ -92748,17 +93842,26 @@
       <c r="IQ123" t="n">
         <v>170</v>
       </c>
-      <c r="IR123" t="inlineStr">
+      <c r="IR123" t="n">
+        <v>182</v>
+      </c>
+      <c r="IS123" t="n">
+        <v>197</v>
+      </c>
+      <c r="IT123" t="n">
+        <v>177</v>
+      </c>
+      <c r="IU123" t="inlineStr">
         <is>
           <t>AMUSEXCSB</t>
         </is>
       </c>
-      <c r="IS123" t="inlineStr">
+      <c r="IV123" t="inlineStr">
         <is>
           <t>Musical instruments,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT123" t="n">
+      <c r="IW123" t="n">
         <v>164</v>
       </c>
     </row>
@@ -93518,17 +94621,26 @@
       <c r="IQ124" t="n">
         <v>76</v>
       </c>
-      <c r="IR124" t="inlineStr">
+      <c r="IR124" t="n">
+        <v>74</v>
+      </c>
+      <c r="IS124" t="n">
+        <v>92</v>
+      </c>
+      <c r="IT124" t="n">
+        <v>153</v>
+      </c>
+      <c r="IU124" t="inlineStr">
         <is>
           <t>ANMCEXCSB</t>
         </is>
       </c>
-      <c r="IS124" t="inlineStr">
+      <c r="IV124" t="inlineStr">
         <is>
           <t>Numismatic coins,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT124" t="n">
+      <c r="IW124" t="n">
         <v>165</v>
       </c>
     </row>
@@ -94288,17 +95400,26 @@
       <c r="IQ125" t="n">
         <v>49</v>
       </c>
-      <c r="IR125" t="inlineStr">
+      <c r="IR125" t="n">
+        <v>43</v>
+      </c>
+      <c r="IS125" t="n">
+        <v>38</v>
+      </c>
+      <c r="IT125" t="n">
+        <v>41</v>
+      </c>
+      <c r="IU125" t="inlineStr">
         <is>
           <t>ANUREXCSB</t>
         </is>
       </c>
-      <c r="IS125" t="inlineStr">
+      <c r="IV125" t="inlineStr">
         <is>
           <t>Nursery stock, etc.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT125" t="n">
+      <c r="IW125" t="n">
         <v>166</v>
       </c>
     </row>
@@ -94796,17 +95917,26 @@
       <c r="IQ126" t="n">
         <v>604</v>
       </c>
-      <c r="IR126" t="inlineStr">
+      <c r="IR126" t="n">
+        <v>616</v>
+      </c>
+      <c r="IS126" t="n">
+        <v>618</v>
+      </c>
+      <c r="IT126" t="n">
+        <v>577</v>
+      </c>
+      <c r="IU126" t="inlineStr">
         <is>
           <t>AOCNEXCSB</t>
         </is>
       </c>
-      <c r="IS126" t="inlineStr">
+      <c r="IV126" t="inlineStr">
         <is>
           <t>Other consumer nondurables,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT126" t="n">
+      <c r="IW126" t="n">
         <v>167</v>
       </c>
     </row>
@@ -95564,19 +96694,28 @@
         <v>8648</v>
       </c>
       <c r="IQ127" t="n">
-        <v>8081</v>
-      </c>
-      <c r="IR127" t="inlineStr">
+        <v>8080</v>
+      </c>
+      <c r="IR127" t="n">
+        <v>8687</v>
+      </c>
+      <c r="IS127" t="n">
+        <v>9733</v>
+      </c>
+      <c r="IT127" t="n">
+        <v>6490</v>
+      </c>
+      <c r="IU127" t="inlineStr">
         <is>
           <t>APHAEXCSB</t>
         </is>
       </c>
-      <c r="IS127" t="inlineStr">
+      <c r="IV127" t="inlineStr">
         <is>
           <t>Pharmaceutical preparations,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT127" t="n">
+      <c r="IW127" t="n">
         <v>168</v>
       </c>
     </row>
@@ -96336,17 +97475,26 @@
       <c r="IQ128" t="n">
         <v>260</v>
       </c>
-      <c r="IR128" t="inlineStr">
+      <c r="IR128" t="n">
+        <v>200</v>
+      </c>
+      <c r="IS128" t="n">
+        <v>252</v>
+      </c>
+      <c r="IT128" t="n">
+        <v>212</v>
+      </c>
+      <c r="IU128" t="inlineStr">
         <is>
           <t>APBMEXCSB</t>
         </is>
       </c>
-      <c r="IS128" t="inlineStr">
+      <c r="IV128" t="inlineStr">
         <is>
           <t>Pleasure boats and motors,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT128" t="n">
+      <c r="IW128" t="n">
         <v>170</v>
       </c>
     </row>
@@ -97106,17 +98254,26 @@
       <c r="IQ129" t="n">
         <v>111</v>
       </c>
-      <c r="IR129" t="inlineStr">
+      <c r="IR129" t="n">
+        <v>117</v>
+      </c>
+      <c r="IS129" t="n">
+        <v>130</v>
+      </c>
+      <c r="IT129" t="n">
+        <v>153</v>
+      </c>
+      <c r="IU129" t="inlineStr">
         <is>
           <t>ARCMEXCSB</t>
         </is>
       </c>
-      <c r="IS129" t="inlineStr">
+      <c r="IV129" t="inlineStr">
         <is>
           <t>Recorded media,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT129" t="n">
+      <c r="IW129" t="n">
         <v>171</v>
       </c>
     </row>
@@ -97876,17 +99033,26 @@
       <c r="IQ130" t="n">
         <v>63</v>
       </c>
-      <c r="IR130" t="inlineStr">
+      <c r="IR130" t="n">
+        <v>64</v>
+      </c>
+      <c r="IS130" t="n">
+        <v>66</v>
+      </c>
+      <c r="IT130" t="n">
+        <v>65</v>
+      </c>
+      <c r="IU130" t="inlineStr">
         <is>
           <t>ARUGEXCSB</t>
         </is>
       </c>
-      <c r="IS130" t="inlineStr">
+      <c r="IV130" t="inlineStr">
         <is>
           <t>Rugs,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT130" t="n">
+      <c r="IW130" t="n">
         <v>172</v>
       </c>
     </row>
@@ -98646,17 +99812,26 @@
       <c r="IQ131" t="n">
         <v>66</v>
       </c>
-      <c r="IR131" t="inlineStr">
+      <c r="IR131" t="n">
+        <v>64</v>
+      </c>
+      <c r="IS131" t="n">
+        <v>71</v>
+      </c>
+      <c r="IT131" t="n">
+        <v>66</v>
+      </c>
+      <c r="IU131" t="inlineStr">
         <is>
           <t>ASAGEXCSB</t>
         </is>
       </c>
-      <c r="IS131" t="inlineStr">
+      <c r="IV131" t="inlineStr">
         <is>
           <t>Sports apparel and gear,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT131" t="n">
+      <c r="IW131" t="n">
         <v>173</v>
       </c>
     </row>
@@ -99414,19 +100589,28 @@
         <v>190</v>
       </c>
       <c r="IQ132" t="n">
-        <v>207</v>
-      </c>
-      <c r="IR132" t="inlineStr">
+        <v>206</v>
+      </c>
+      <c r="IR132" t="n">
+        <v>164</v>
+      </c>
+      <c r="IS132" t="n">
+        <v>197</v>
+      </c>
+      <c r="IT132" t="n">
+        <v>217</v>
+      </c>
+      <c r="IU132" t="inlineStr">
         <is>
           <t>ASTEEXCSB</t>
         </is>
       </c>
-      <c r="IS132" t="inlineStr">
+      <c r="IV132" t="inlineStr">
         <is>
           <t>Stereo equipment, etc.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT132" t="n">
+      <c r="IW132" t="n">
         <v>174</v>
       </c>
     </row>
@@ -100186,17 +101370,26 @@
       <c r="IQ133" t="n">
         <v>246</v>
       </c>
-      <c r="IR133" t="inlineStr">
+      <c r="IR133" t="n">
+        <v>219</v>
+      </c>
+      <c r="IS133" t="n">
+        <v>246</v>
+      </c>
+      <c r="IT133" t="n">
+        <v>235</v>
+      </c>
+      <c r="IU133" t="inlineStr">
         <is>
           <t>ATVEEXCSB</t>
         </is>
       </c>
-      <c r="IS133" t="inlineStr">
+      <c r="IV133" t="inlineStr">
         <is>
           <t>Televisions and video equipment,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT133" t="n">
+      <c r="IW133" t="n">
         <v>175</v>
       </c>
     </row>
@@ -100956,17 +102149,26 @@
       <c r="IQ134" t="n">
         <v>30</v>
       </c>
-      <c r="IR134" t="inlineStr">
+      <c r="IR134" t="n">
+        <v>25</v>
+      </c>
+      <c r="IS134" t="n">
+        <v>23</v>
+      </c>
+      <c r="IT134" t="n">
+        <v>29</v>
+      </c>
+      <c r="IU134" t="inlineStr">
         <is>
           <t>ATBMEXCSB</t>
         </is>
       </c>
-      <c r="IS134" t="inlineStr">
+      <c r="IV134" t="inlineStr">
         <is>
           <t>Tobacco, manufactured,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT134" t="n">
+      <c r="IW134" t="n">
         <v>176</v>
       </c>
     </row>
@@ -101726,17 +102928,26 @@
       <c r="IQ135" t="n">
         <v>1099</v>
       </c>
-      <c r="IR135" t="inlineStr">
+      <c r="IR135" t="n">
+        <v>1128</v>
+      </c>
+      <c r="IS135" t="n">
+        <v>1117</v>
+      </c>
+      <c r="IT135" t="n">
+        <v>1040</v>
+      </c>
+      <c r="IU135" t="inlineStr">
         <is>
           <t>ATCMEXCSB</t>
         </is>
       </c>
-      <c r="IS135" t="inlineStr">
+      <c r="IV135" t="inlineStr">
         <is>
           <t>Toiletries and cosmetics,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT135" t="n">
+      <c r="IW135" t="n">
         <v>177</v>
       </c>
     </row>
@@ -102496,17 +103707,26 @@
       <c r="IQ136" t="n">
         <v>918</v>
       </c>
-      <c r="IR136" t="inlineStr">
+      <c r="IR136" t="n">
+        <v>839</v>
+      </c>
+      <c r="IS136" t="n">
+        <v>902</v>
+      </c>
+      <c r="IT136" t="n">
+        <v>1005</v>
+      </c>
+      <c r="IU136" t="inlineStr">
         <is>
           <t>ATOYEXCSB</t>
         </is>
       </c>
-      <c r="IS136" t="inlineStr">
+      <c r="IV136" t="inlineStr">
         <is>
           <t>Toys, games and sporting goods,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT136" t="n">
+      <c r="IW136" t="n">
         <v>178</v>
       </c>
     </row>
@@ -103264,19 +104484,28 @@
         <v>5509</v>
       </c>
       <c r="IQ137" t="n">
-        <v>6445</v>
-      </c>
-      <c r="IR137" t="inlineStr">
+        <v>6610</v>
+      </c>
+      <c r="IR137" t="n">
+        <v>6017</v>
+      </c>
+      <c r="IS137" t="n">
+        <v>5898</v>
+      </c>
+      <c r="IT137" t="n">
+        <v>5700</v>
+      </c>
+      <c r="IU137" t="inlineStr">
         <is>
           <t>AOTGEXCSB</t>
         </is>
       </c>
-      <c r="IS137" t="inlineStr">
+      <c r="IV137" t="inlineStr">
         <is>
           <t>Other Goods,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IT137" t="n">
+      <c r="IW137" t="n">
         <v>179</v>
       </c>
     </row>

--- a/data/BOC/FTD/FTDE/AGDSEXCSB_M_historical.xlsx
+++ b/data/BOC/FTD/FTDE/AGDSEXCSB_M_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IW137"/>
+  <dimension ref="A1:IX137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1639,15 +1639,20 @@
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="IV1" s="1" t="inlineStr">
+      <c r="IW1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="IW1" s="1" t="inlineStr">
+      <c r="IX1" s="1" t="inlineStr">
         <is>
           <t>order</t>
         </is>
@@ -2416,19 +2421,22 @@
         <v>14120</v>
       </c>
       <c r="IT2" t="n">
-        <v>14122</v>
-      </c>
-      <c r="IU2" t="inlineStr">
+        <v>14117</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>14769</v>
+      </c>
+      <c r="IV2" t="inlineStr">
         <is>
           <t>AFFBEXCSB</t>
         </is>
       </c>
-      <c r="IV2" t="inlineStr">
+      <c r="IW2" t="inlineStr">
         <is>
           <t>Foods, Feeds and Beverages,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW2" t="n">
+      <c r="IX2" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3197,17 +3205,20 @@
       <c r="IT3" t="n">
         <v>209</v>
       </c>
-      <c r="IU3" t="inlineStr">
+      <c r="IU3" t="n">
+        <v>226</v>
+      </c>
+      <c r="IV3" t="inlineStr">
         <is>
           <t>AACBEXCSB</t>
         </is>
       </c>
-      <c r="IV3" t="inlineStr">
+      <c r="IW3" t="inlineStr">
         <is>
           <t>Alcoholic beverages, excluding wine,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW3" t="n">
+      <c r="IX3" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3976,17 +3987,20 @@
       <c r="IT4" t="n">
         <v>893</v>
       </c>
-      <c r="IU4" t="inlineStr">
+      <c r="IU4" t="n">
+        <v>924</v>
+      </c>
+      <c r="IV4" t="inlineStr">
         <is>
           <t>AANFEXCSB</t>
         </is>
       </c>
-      <c r="IV4" t="inlineStr">
+      <c r="IW4" t="inlineStr">
         <is>
           <t>Animal feeds, n.e.c.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW4" t="n">
+      <c r="IX4" t="n">
         <v>15</v>
       </c>
     </row>
@@ -4755,17 +4769,20 @@
       <c r="IT5" t="n">
         <v>528</v>
       </c>
-      <c r="IU5" t="inlineStr">
+      <c r="IU5" t="n">
+        <v>544</v>
+      </c>
+      <c r="IV5" t="inlineStr">
         <is>
           <t>ABAKEXCSB</t>
         </is>
       </c>
-      <c r="IV5" t="inlineStr">
+      <c r="IW5" t="inlineStr">
         <is>
           <t>Bakery products,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW5" t="n">
+      <c r="IX5" t="n">
         <v>16</v>
       </c>
     </row>
@@ -5532,19 +5549,22 @@
         <v>1483</v>
       </c>
       <c r="IT6" t="n">
-        <v>1735</v>
-      </c>
-      <c r="IU6" t="inlineStr">
+        <v>1736</v>
+      </c>
+      <c r="IU6" t="n">
+        <v>2033</v>
+      </c>
+      <c r="IV6" t="inlineStr">
         <is>
           <t>ACOREXCSB</t>
         </is>
       </c>
-      <c r="IV6" t="inlineStr">
+      <c r="IW6" t="inlineStr">
         <is>
           <t>Corn,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW6" t="n">
+      <c r="IX6" t="n">
         <v>19</v>
       </c>
     </row>
@@ -6311,19 +6331,22 @@
         <v>511</v>
       </c>
       <c r="IT7" t="n">
-        <v>537</v>
-      </c>
-      <c r="IU7" t="inlineStr">
+        <v>538</v>
+      </c>
+      <c r="IU7" t="n">
+        <v>601</v>
+      </c>
+      <c r="IV7" t="inlineStr">
         <is>
           <t>ADPEEXCSB</t>
         </is>
       </c>
-      <c r="IV7" t="inlineStr">
+      <c r="IW7" t="inlineStr">
         <is>
           <t>Dairy products and eggs,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW7" t="n">
+      <c r="IX7" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7092,17 +7115,20 @@
       <c r="IT8" t="n">
         <v>460</v>
       </c>
-      <c r="IU8" t="inlineStr">
+      <c r="IU8" t="n">
+        <v>425</v>
+      </c>
+      <c r="IV8" t="inlineStr">
         <is>
           <t>AFSFEXCSB</t>
         </is>
       </c>
-      <c r="IV8" t="inlineStr">
+      <c r="IW8" t="inlineStr">
         <is>
           <t>Fish and shellfish,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW8" t="n">
+      <c r="IX8" t="n">
         <v>22</v>
       </c>
     </row>
@@ -7871,17 +7897,20 @@
       <c r="IT9" t="n">
         <v>746</v>
       </c>
-      <c r="IU9" t="inlineStr">
+      <c r="IU9" t="n">
+        <v>785</v>
+      </c>
+      <c r="IV9" t="inlineStr">
         <is>
           <t>AFFJEXCSB</t>
         </is>
       </c>
-      <c r="IV9" t="inlineStr">
+      <c r="IW9" t="inlineStr">
         <is>
           <t>Fruits and frozen juices,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW9" t="n">
+      <c r="IX9" t="n">
         <v>23</v>
       </c>
     </row>
@@ -8648,19 +8677,22 @@
         <v>2030</v>
       </c>
       <c r="IT10" t="n">
-        <v>2228</v>
-      </c>
-      <c r="IU10" t="inlineStr">
+        <v>2227</v>
+      </c>
+      <c r="IU10" t="n">
+        <v>2155</v>
+      </c>
+      <c r="IV10" t="inlineStr">
         <is>
           <t>AMPOEXCSB</t>
         </is>
       </c>
-      <c r="IV10" t="inlineStr">
+      <c r="IW10" t="inlineStr">
         <is>
           <t>Meat, poultry, etc.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW10" t="n">
+      <c r="IX10" t="n">
         <v>25</v>
       </c>
     </row>
@@ -9429,17 +9461,20 @@
       <c r="IT11" t="n">
         <v>36</v>
       </c>
-      <c r="IU11" t="inlineStr">
+      <c r="IU11" t="n">
+        <v>35</v>
+      </c>
+      <c r="IV11" t="inlineStr">
         <is>
           <t>ANAFEXCSB</t>
         </is>
       </c>
-      <c r="IV11" t="inlineStr">
+      <c r="IW11" t="inlineStr">
         <is>
           <t>Nonagricultural foods, etc.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW11" t="n">
+      <c r="IX11" t="n">
         <v>26</v>
       </c>
     </row>
@@ -10206,19 +10241,22 @@
         <v>584</v>
       </c>
       <c r="IT12" t="n">
-        <v>685</v>
-      </c>
-      <c r="IU12" t="inlineStr">
+        <v>684</v>
+      </c>
+      <c r="IU12" t="n">
+        <v>811</v>
+      </c>
+      <c r="IV12" t="inlineStr">
         <is>
           <t>ANUTEXCSB</t>
         </is>
       </c>
-      <c r="IV12" t="inlineStr">
+      <c r="IW12" t="inlineStr">
         <is>
           <t>Nuts,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW12" t="n">
+      <c r="IX12" t="n">
         <v>27</v>
       </c>
     </row>
@@ -10987,17 +11025,20 @@
       <c r="IT13" t="n">
         <v>397</v>
       </c>
-      <c r="IU13" t="inlineStr">
+      <c r="IU13" t="n">
+        <v>369</v>
+      </c>
+      <c r="IV13" t="inlineStr">
         <is>
           <t>AOFOEXCSB</t>
         </is>
       </c>
-      <c r="IV13" t="inlineStr">
+      <c r="IW13" t="inlineStr">
         <is>
           <t>Food oils and oilseeds,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW13" t="n">
+      <c r="IX13" t="n">
         <v>28</v>
       </c>
     </row>
@@ -11764,19 +11805,22 @@
         <v>1447</v>
       </c>
       <c r="IT14" t="n">
-        <v>1418</v>
-      </c>
-      <c r="IU14" t="inlineStr">
+        <v>1417</v>
+      </c>
+      <c r="IU14" t="n">
+        <v>1465</v>
+      </c>
+      <c r="IV14" t="inlineStr">
         <is>
           <t>AOTFEXCSB</t>
         </is>
       </c>
-      <c r="IV14" t="inlineStr">
+      <c r="IW14" t="inlineStr">
         <is>
           <t>Other foods,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW14" t="n">
+      <c r="IX14" t="n">
         <v>29</v>
       </c>
     </row>
@@ -12545,17 +12589,20 @@
       <c r="IT15" t="n">
         <v>177</v>
       </c>
-      <c r="IU15" t="inlineStr">
+      <c r="IU15" t="n">
+        <v>180</v>
+      </c>
+      <c r="IV15" t="inlineStr">
         <is>
           <t>ARICEXCSB</t>
         </is>
       </c>
-      <c r="IV15" t="inlineStr">
+      <c r="IW15" t="inlineStr">
         <is>
           <t>Rice,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW15" t="n">
+      <c r="IX15" t="n">
         <v>30</v>
       </c>
     </row>
@@ -13324,17 +13371,20 @@
       <c r="IT16" t="n">
         <v>172</v>
       </c>
-      <c r="IU16" t="inlineStr">
+      <c r="IU16" t="n">
+        <v>308</v>
+      </c>
+      <c r="IV16" t="inlineStr">
         <is>
           <t>ASBOEXCSB</t>
         </is>
       </c>
-      <c r="IV16" t="inlineStr">
+      <c r="IW16" t="inlineStr">
         <is>
           <t>Sorghum, barley, oats,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW16" t="n">
+      <c r="IX16" t="n">
         <v>31</v>
       </c>
     </row>
@@ -14101,19 +14151,22 @@
         <v>3144</v>
       </c>
       <c r="IT17" t="n">
-        <v>2452</v>
-      </c>
-      <c r="IU17" t="inlineStr">
+        <v>2465</v>
+      </c>
+      <c r="IU17" t="n">
+        <v>2419</v>
+      </c>
+      <c r="IV17" t="inlineStr">
         <is>
           <t>ASOYEXCSB</t>
         </is>
       </c>
-      <c r="IV17" t="inlineStr">
+      <c r="IW17" t="inlineStr">
         <is>
           <t>Soybeans,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW17" t="n">
+      <c r="IX17" t="n">
         <v>32</v>
       </c>
     </row>
@@ -14882,17 +14935,20 @@
       <c r="IT18" t="n">
         <v>532</v>
       </c>
-      <c r="IU18" t="inlineStr">
+      <c r="IU18" t="n">
+        <v>582</v>
+      </c>
+      <c r="IV18" t="inlineStr">
         <is>
           <t>AVEGEXCSB</t>
         </is>
       </c>
-      <c r="IV18" t="inlineStr">
+      <c r="IW18" t="inlineStr">
         <is>
           <t>Vegetables,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW18" t="n">
+      <c r="IX18" t="n">
         <v>34</v>
       </c>
     </row>
@@ -15659,19 +15715,22 @@
         <v>564</v>
       </c>
       <c r="IT19" t="n">
-        <v>742</v>
-      </c>
-      <c r="IU19" t="inlineStr">
+        <v>726</v>
+      </c>
+      <c r="IU19" t="n">
+        <v>725</v>
+      </c>
+      <c r="IV19" t="inlineStr">
         <is>
           <t>AWHTEXCSB</t>
         </is>
       </c>
-      <c r="IV19" t="inlineStr">
+      <c r="IW19" t="inlineStr">
         <is>
           <t>Wheat,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW19" t="n">
+      <c r="IX19" t="n">
         <v>35</v>
       </c>
     </row>
@@ -16440,17 +16499,20 @@
       <c r="IT20" t="n">
         <v>175</v>
       </c>
-      <c r="IU20" t="inlineStr">
+      <c r="IU20" t="n">
+        <v>181</v>
+      </c>
+      <c r="IV20" t="inlineStr">
         <is>
           <t>AWBPEXCSB</t>
         </is>
       </c>
-      <c r="IV20" t="inlineStr">
+      <c r="IW20" t="inlineStr">
         <is>
           <t>Wine, beer, and related products,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW20" t="n">
+      <c r="IX20" t="n">
         <v>36</v>
       </c>
     </row>
@@ -17217,19 +17279,22 @@
         <v>57571</v>
       </c>
       <c r="IT21" t="n">
-        <v>58022</v>
-      </c>
-      <c r="IU21" t="inlineStr">
+        <v>58141</v>
+      </c>
+      <c r="IU21" t="n">
+        <v>59864</v>
+      </c>
+      <c r="IV21" t="inlineStr">
         <is>
           <t>AIDSEXCSB</t>
         </is>
       </c>
-      <c r="IV21" t="inlineStr">
+      <c r="IW21" t="inlineStr">
         <is>
           <t>Industrial Supplies and Materials,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW21" t="n">
+      <c r="IX21" t="n">
         <v>37</v>
       </c>
     </row>
@@ -17998,17 +18063,20 @@
       <c r="IT22" t="n">
         <v>277</v>
       </c>
-      <c r="IU22" t="inlineStr">
+      <c r="IU22" t="n">
+        <v>333</v>
+      </c>
+      <c r="IV22" t="inlineStr">
         <is>
           <t>AAFUEXCSB</t>
         </is>
       </c>
-      <c r="IV22" t="inlineStr">
+      <c r="IW22" t="inlineStr">
         <is>
           <t>Agricultural farming-unmanufactured,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW22" t="n">
+      <c r="IX22" t="n">
         <v>38</v>
       </c>
     </row>
@@ -18777,17 +18845,20 @@
       <c r="IT23" t="n">
         <v>551</v>
       </c>
-      <c r="IU23" t="inlineStr">
+      <c r="IU23" t="n">
+        <v>476</v>
+      </c>
+      <c r="IV23" t="inlineStr">
         <is>
           <t>AAIUEXCSB</t>
         </is>
       </c>
-      <c r="IV23" t="inlineStr">
+      <c r="IW23" t="inlineStr">
         <is>
           <t>Agricultural industry-unmanufactured,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW23" t="n">
+      <c r="IX23" t="n">
         <v>39</v>
       </c>
     </row>
@@ -19556,17 +19627,20 @@
       <c r="IT24" t="n">
         <v>343</v>
       </c>
-      <c r="IU24" t="inlineStr">
+      <c r="IU24" t="n">
+        <v>330</v>
+      </c>
+      <c r="IV24" t="inlineStr">
         <is>
           <t>AOAMEXCSB</t>
         </is>
       </c>
-      <c r="IV24" t="inlineStr">
+      <c r="IW24" t="inlineStr">
         <is>
           <t>Agriculture-manufactured, other,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW24" t="n">
+      <c r="IX24" t="n">
         <v>40</v>
       </c>
     </row>
@@ -20333,19 +20407,22 @@
         <v>775</v>
       </c>
       <c r="IT25" t="n">
-        <v>718</v>
-      </c>
-      <c r="IU25" t="inlineStr">
+        <v>719</v>
+      </c>
+      <c r="IU25" t="n">
+        <v>778</v>
+      </c>
+      <c r="IV25" t="inlineStr">
         <is>
           <t>AALUEXCSB</t>
         </is>
       </c>
-      <c r="IV25" t="inlineStr">
+      <c r="IW25" t="inlineStr">
         <is>
           <t>Aluminum and alumina,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW25" t="n">
+      <c r="IX25" t="n">
         <v>41</v>
       </c>
     </row>
@@ -21114,17 +21191,20 @@
       <c r="IT26" t="n">
         <v>9</v>
       </c>
-      <c r="IU26" t="inlineStr">
+      <c r="IU26" t="n">
+        <v>8</v>
+      </c>
+      <c r="IV26" t="inlineStr">
         <is>
           <t>ATAVEXCSB</t>
         </is>
       </c>
-      <c r="IV26" t="inlineStr">
+      <c r="IW26" t="inlineStr">
         <is>
           <t>Tapes, audio and visual,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW26" t="n">
+      <c r="IX26" t="n">
         <v>43</v>
       </c>
     </row>
@@ -21893,17 +21973,20 @@
       <c r="IT27" t="n">
         <v>1060</v>
       </c>
-      <c r="IU27" t="inlineStr">
+      <c r="IU27" t="n">
+        <v>936</v>
+      </c>
+      <c r="IV27" t="inlineStr">
         <is>
           <t>ACMFEXCSB</t>
         </is>
       </c>
-      <c r="IV27" t="inlineStr">
+      <c r="IW27" t="inlineStr">
         <is>
           <t>Chemicals-fertilizers,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW27" t="n">
+      <c r="IX27" t="n">
         <v>44</v>
       </c>
     </row>
@@ -22672,17 +22755,20 @@
       <c r="IT28" t="n">
         <v>976</v>
       </c>
-      <c r="IU28" t="inlineStr">
+      <c r="IU28" t="n">
+        <v>944</v>
+      </c>
+      <c r="IV28" t="inlineStr">
         <is>
           <t>ACMIEXCSB</t>
         </is>
       </c>
-      <c r="IV28" t="inlineStr">
+      <c r="IW28" t="inlineStr">
         <is>
           <t>Chemicals-inorganic,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW28" t="n">
+      <c r="IX28" t="n">
         <v>45</v>
       </c>
     </row>
@@ -23449,19 +23535,22 @@
         <v>3138</v>
       </c>
       <c r="IT29" t="n">
-        <v>3524</v>
-      </c>
-      <c r="IU29" t="inlineStr">
+        <v>3513</v>
+      </c>
+      <c r="IU29" t="n">
+        <v>3414</v>
+      </c>
+      <c r="IV29" t="inlineStr">
         <is>
           <t>ACMOEXCSB</t>
         </is>
       </c>
-      <c r="IV29" t="inlineStr">
+      <c r="IW29" t="inlineStr">
         <is>
           <t>Chemicals-organic,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW29" t="n">
+      <c r="IX29" t="n">
         <v>46</v>
       </c>
     </row>
@@ -24228,19 +24317,22 @@
         <v>3334</v>
       </c>
       <c r="IT30" t="n">
-        <v>3470</v>
-      </c>
-      <c r="IU30" t="inlineStr">
+        <v>3471</v>
+      </c>
+      <c r="IU30" t="n">
+        <v>3512</v>
+      </c>
+      <c r="IV30" t="inlineStr">
         <is>
           <t>AOCMEXCSB</t>
         </is>
       </c>
-      <c r="IV30" t="inlineStr">
+      <c r="IW30" t="inlineStr">
         <is>
           <t>Chemicals-other,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW30" t="n">
+      <c r="IX30" t="n">
         <v>47</v>
       </c>
     </row>
@@ -25007,19 +25099,22 @@
         <v>671</v>
       </c>
       <c r="IT31" t="n">
-        <v>756</v>
-      </c>
-      <c r="IU31" t="inlineStr">
+        <v>759</v>
+      </c>
+      <c r="IU31" t="n">
+        <v>680</v>
+      </c>
+      <c r="IV31" t="inlineStr">
         <is>
           <t>AOCFEXCSB</t>
         </is>
       </c>
-      <c r="IV31" t="inlineStr">
+      <c r="IW31" t="inlineStr">
         <is>
           <t>Coal and related fuels,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW31" t="n">
+      <c r="IX31" t="n">
         <v>48</v>
       </c>
     </row>
@@ -25788,17 +25883,20 @@
       <c r="IT32" t="n">
         <v>830</v>
       </c>
-      <c r="IU32" t="inlineStr">
+      <c r="IU32" t="n">
+        <v>867</v>
+      </c>
+      <c r="IV32" t="inlineStr">
         <is>
           <t>ACOPEXCSB</t>
         </is>
       </c>
-      <c r="IV32" t="inlineStr">
+      <c r="IW32" t="inlineStr">
         <is>
           <t>Copper,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW32" t="n">
+      <c r="IX32" t="n">
         <v>49</v>
       </c>
     </row>
@@ -26567,17 +26665,20 @@
       <c r="IT33" t="n">
         <v>165</v>
       </c>
-      <c r="IU33" t="inlineStr">
+      <c r="IU33" t="n">
+        <v>174</v>
+      </c>
+      <c r="IV33" t="inlineStr">
         <is>
           <t>ACFCEXCSB</t>
         </is>
       </c>
-      <c r="IV33" t="inlineStr">
+      <c r="IW33" t="inlineStr">
         <is>
           <t>Cotton fiber cloth,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW33" t="n">
+      <c r="IX33" t="n">
         <v>50</v>
       </c>
     </row>
@@ -27344,19 +27445,22 @@
         <v>505</v>
       </c>
       <c r="IT34" t="n">
-        <v>648</v>
-      </c>
-      <c r="IU34" t="inlineStr">
+        <v>649</v>
+      </c>
+      <c r="IU34" t="n">
+        <v>656</v>
+      </c>
+      <c r="IV34" t="inlineStr">
         <is>
           <t>ACTREXCSB</t>
         </is>
       </c>
-      <c r="IV34" t="inlineStr">
+      <c r="IW34" t="inlineStr">
         <is>
           <t>Cotton, raw,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW34" t="n">
+      <c r="IX34" t="n">
         <v>51</v>
       </c>
     </row>
@@ -28123,19 +28227,22 @@
         <v>7449</v>
       </c>
       <c r="IT35" t="n">
-        <v>7491</v>
-      </c>
-      <c r="IU35" t="inlineStr">
+        <v>7551</v>
+      </c>
+      <c r="IU35" t="n">
+        <v>7428</v>
+      </c>
+      <c r="IV35" t="inlineStr">
         <is>
           <t>ACDOEXCSB</t>
         </is>
       </c>
-      <c r="IV35" t="inlineStr">
+      <c r="IW35" t="inlineStr">
         <is>
           <t>Crude oil,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW35" t="n">
+      <c r="IX35" t="n">
         <v>53</v>
       </c>
     </row>
@@ -28906,17 +29013,20 @@
       <c r="IT36" t="n">
         <v>78</v>
       </c>
-      <c r="IU36" t="inlineStr">
+      <c r="IU36" t="n">
+        <v>28</v>
+      </c>
+      <c r="IV36" t="inlineStr">
         <is>
           <t>AEENEXCSB</t>
         </is>
       </c>
-      <c r="IV36" t="inlineStr">
+      <c r="IW36" t="inlineStr">
         <is>
           <t>Electric energy,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW36" t="n">
+      <c r="IX36" t="n">
         <v>54</v>
       </c>
     </row>
@@ -29685,17 +29795,20 @@
       <c r="IT37" t="n">
         <v>2014</v>
       </c>
-      <c r="IU37" t="inlineStr">
+      <c r="IU37" t="n">
+        <v>2114</v>
+      </c>
+      <c r="IV37" t="inlineStr">
         <is>
           <t>AFMSEXCSB</t>
         </is>
       </c>
-      <c r="IV37" t="inlineStr">
+      <c r="IW37" t="inlineStr">
         <is>
           <t>Finished metal shapes,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW37" t="n">
+      <c r="IX37" t="n">
         <v>56</v>
       </c>
     </row>
@@ -30464,17 +30577,20 @@
       <c r="IT38" t="n">
         <v>251</v>
       </c>
-      <c r="IU38" t="inlineStr">
+      <c r="IU38" t="n">
+        <v>246</v>
+      </c>
+      <c r="IV38" t="inlineStr">
         <is>
           <t>AFTSEXCSB</t>
         </is>
       </c>
-      <c r="IV38" t="inlineStr">
+      <c r="IW38" t="inlineStr">
         <is>
           <t>Finished textile supplies,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW38" t="n">
+      <c r="IX38" t="n">
         <v>57</v>
       </c>
     </row>
@@ -31241,19 +31357,22 @@
         <v>3123</v>
       </c>
       <c r="IT39" t="n">
-        <v>2883</v>
-      </c>
-      <c r="IU39" t="inlineStr">
+        <v>2920</v>
+      </c>
+      <c r="IU39" t="n">
+        <v>3684</v>
+      </c>
+      <c r="IV39" t="inlineStr">
         <is>
           <t>AFULEXCSB</t>
         </is>
       </c>
-      <c r="IV39" t="inlineStr">
+      <c r="IW39" t="inlineStr">
         <is>
           <t>Fuel oil,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW39" t="n">
+      <c r="IX39" t="n">
         <v>58</v>
       </c>
     </row>
@@ -32020,19 +32139,22 @@
         <v>3676</v>
       </c>
       <c r="IT40" t="n">
-        <v>3377</v>
-      </c>
-      <c r="IU40" t="inlineStr">
+        <v>3392</v>
+      </c>
+      <c r="IU40" t="n">
+        <v>3729</v>
+      </c>
+      <c r="IV40" t="inlineStr">
         <is>
           <t>ANGSEXCSB</t>
         </is>
       </c>
-      <c r="IV40" t="inlineStr">
+      <c r="IW40" t="inlineStr">
         <is>
           <t>Gas-natural,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW40" t="n">
+      <c r="IX40" t="n">
         <v>59</v>
       </c>
     </row>
@@ -32801,17 +32923,20 @@
       <c r="IT41" t="n">
         <v>107</v>
       </c>
-      <c r="IU41" t="inlineStr">
+      <c r="IU41" t="n">
+        <v>113</v>
+      </c>
+      <c r="IV41" t="inlineStr">
         <is>
           <t>AGPSEXCSB</t>
         </is>
       </c>
-      <c r="IV41" t="inlineStr">
+      <c r="IW41" t="inlineStr">
         <is>
           <t>Glass-plate, sheet, etc.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW41" t="n">
+      <c r="IX41" t="n">
         <v>60</v>
       </c>
     </row>
@@ -33580,17 +33705,20 @@
       <c r="IT42" t="n">
         <v>52</v>
       </c>
-      <c r="IU42" t="inlineStr">
+      <c r="IU42" t="n">
+        <v>58</v>
+      </c>
+      <c r="IV42" t="inlineStr">
         <is>
           <t>AHWMEXCSB</t>
         </is>
       </c>
-      <c r="IV42" t="inlineStr">
+      <c r="IW42" t="inlineStr">
         <is>
           <t>Hair and waste materials,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW42" t="n">
+      <c r="IX42" t="n">
         <v>61</v>
       </c>
     </row>
@@ -34359,17 +34487,20 @@
       <c r="IT43" t="n">
         <v>95</v>
       </c>
-      <c r="IU43" t="inlineStr">
+      <c r="IU43" t="n">
+        <v>97</v>
+      </c>
+      <c r="IV43" t="inlineStr">
         <is>
           <t>AHSKEXCSB</t>
         </is>
       </c>
-      <c r="IV43" t="inlineStr">
+      <c r="IW43" t="inlineStr">
         <is>
           <t>Hides and skins,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW43" t="n">
+      <c r="IX43" t="n">
         <v>62</v>
       </c>
     </row>
@@ -35138,17 +35269,20 @@
       <c r="IT44" t="n">
         <v>412</v>
       </c>
-      <c r="IU44" t="inlineStr">
+      <c r="IU44" t="n">
+        <v>422</v>
+      </c>
+      <c r="IV44" t="inlineStr">
         <is>
           <t>AIRPEXCSB</t>
         </is>
       </c>
-      <c r="IV44" t="inlineStr">
+      <c r="IW44" t="inlineStr">
         <is>
           <t>Industrial rubber products,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW44" t="n">
+      <c r="IX44" t="n">
         <v>63</v>
       </c>
     </row>
@@ -35917,17 +36051,20 @@
       <c r="IT45" t="n">
         <v>2636</v>
       </c>
-      <c r="IU45" t="inlineStr">
+      <c r="IU45" t="n">
+        <v>2644</v>
+      </c>
+      <c r="IV45" t="inlineStr">
         <is>
           <t>AOISEXCSB</t>
         </is>
       </c>
-      <c r="IV45" t="inlineStr">
+      <c r="IW45" t="inlineStr">
         <is>
           <t>Other industrial supplies,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW45" t="n">
+      <c r="IX45" t="n">
         <v>64</v>
       </c>
     </row>
@@ -36696,17 +36833,20 @@
       <c r="IT46" t="n">
         <v>930</v>
       </c>
-      <c r="IU46" t="inlineStr">
+      <c r="IU46" t="n">
+        <v>984</v>
+      </c>
+      <c r="IV46" t="inlineStr">
         <is>
           <t>AISMEXCSB</t>
         </is>
       </c>
-      <c r="IV46" t="inlineStr">
+      <c r="IW46" t="inlineStr">
         <is>
           <t>Iron and steel mill products,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW46" t="n">
+      <c r="IX46" t="n">
         <v>66</v>
       </c>
     </row>
@@ -37475,17 +37615,20 @@
       <c r="IT47" t="n">
         <v>607</v>
       </c>
-      <c r="IU47" t="inlineStr">
+      <c r="IU47" t="n">
+        <v>602</v>
+      </c>
+      <c r="IV47" t="inlineStr">
         <is>
           <t>AIRSEXCSB</t>
         </is>
       </c>
-      <c r="IV47" t="inlineStr">
+      <c r="IW47" t="inlineStr">
         <is>
           <t>Iron and steel products, n.e.c.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW47" t="n">
+      <c r="IX47" t="n">
         <v>67</v>
       </c>
     </row>
@@ -38254,17 +38397,20 @@
       <c r="IT48" t="n">
         <v>62</v>
       </c>
-      <c r="IU48" t="inlineStr">
+      <c r="IU48" t="n">
+        <v>60</v>
+      </c>
+      <c r="IV48" t="inlineStr">
         <is>
           <t>ALTFEXCSB</t>
         </is>
       </c>
-      <c r="IV48" t="inlineStr">
+      <c r="IW48" t="inlineStr">
         <is>
           <t>Leather and furs,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW48" t="n">
+      <c r="IX48" t="n">
         <v>68</v>
       </c>
     </row>
@@ -39031,19 +39177,22 @@
         <v>526</v>
       </c>
       <c r="IT49" t="n">
-        <v>509</v>
-      </c>
-      <c r="IU49" t="inlineStr">
+        <v>508</v>
+      </c>
+      <c r="IU49" t="n">
+        <v>527</v>
+      </c>
+      <c r="IV49" t="inlineStr">
         <is>
           <t>ALLBEXCSB</t>
         </is>
       </c>
-      <c r="IV49" t="inlineStr">
+      <c r="IW49" t="inlineStr">
         <is>
           <t>Logs and lumber,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW49" t="n">
+      <c r="IX49" t="n">
         <v>69</v>
       </c>
     </row>
@@ -39810,19 +39959,22 @@
         <v>561</v>
       </c>
       <c r="IT50" t="n">
-        <v>541</v>
-      </c>
-      <c r="IU50" t="inlineStr">
+        <v>544</v>
+      </c>
+      <c r="IU50" t="n">
+        <v>576</v>
+      </c>
+      <c r="IV50" t="inlineStr">
         <is>
           <t>AMMCEXCSB</t>
         </is>
       </c>
-      <c r="IV50" t="inlineStr">
+      <c r="IW50" t="inlineStr">
         <is>
           <t>Manmade cloth,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW50" t="n">
+      <c r="IX50" t="n">
         <v>71</v>
       </c>
     </row>
@@ -40591,17 +40743,20 @@
       <c r="IT51" t="n">
         <v>768</v>
       </c>
-      <c r="IU51" t="inlineStr">
+      <c r="IU51" t="n">
+        <v>1218</v>
+      </c>
+      <c r="IV51" t="inlineStr">
         <is>
           <t>AMGCEXCSB</t>
         </is>
       </c>
-      <c r="IV51" t="inlineStr">
+      <c r="IW51" t="inlineStr">
         <is>
           <t>Metallurgical grade coal,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW51" t="n">
+      <c r="IX51" t="n">
         <v>73</v>
       </c>
     </row>
@@ -41370,17 +41525,20 @@
       <c r="IT52" t="n">
         <v>590</v>
       </c>
-      <c r="IU52" t="inlineStr">
+      <c r="IU52" t="n">
+        <v>620</v>
+      </c>
+      <c r="IV52" t="inlineStr">
         <is>
           <t>AMSMEXCSB</t>
         </is>
       </c>
-      <c r="IV52" t="inlineStr">
+      <c r="IW52" t="inlineStr">
         <is>
           <t>Mineral supplies-manufactured,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW52" t="n">
+      <c r="IX52" t="n">
         <v>74</v>
       </c>
     </row>
@@ -42147,19 +42305,22 @@
         <v>2787</v>
       </c>
       <c r="IT53" t="n">
-        <v>2849</v>
-      </c>
-      <c r="IU53" t="inlineStr">
+        <v>2859</v>
+      </c>
+      <c r="IU53" t="n">
+        <v>2810</v>
+      </c>
+      <c r="IV53" t="inlineStr">
         <is>
           <t>ANGLEXCSB</t>
         </is>
       </c>
-      <c r="IV53" t="inlineStr">
+      <c r="IW53" t="inlineStr">
         <is>
           <t>Liquified petroleum gases,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW53" t="n">
+      <c r="IX53" t="n">
         <v>75</v>
       </c>
     </row>
@@ -42928,17 +43089,20 @@
       <c r="IT54" t="n">
         <v>1177</v>
       </c>
-      <c r="IU54" t="inlineStr">
+      <c r="IU54" t="n">
+        <v>1210</v>
+      </c>
+      <c r="IV54" t="inlineStr">
         <is>
           <t>ANWPEXCSB</t>
         </is>
       </c>
-      <c r="IV54" t="inlineStr">
+      <c r="IW54" t="inlineStr">
         <is>
           <t>Newsprint,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW54" t="n">
+      <c r="IX54" t="n">
         <v>77</v>
       </c>
     </row>
@@ -43707,17 +43871,20 @@
       <c r="IT55" t="n">
         <v>561</v>
       </c>
-      <c r="IU55" t="inlineStr">
+      <c r="IU55" t="n">
+        <v>687</v>
+      </c>
+      <c r="IV55" t="inlineStr">
         <is>
           <t>AONMEXCSB</t>
         </is>
       </c>
-      <c r="IV55" t="inlineStr">
+      <c r="IW55" t="inlineStr">
         <is>
           <t>Nonferrous metals, other,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW55" t="n">
+      <c r="IX55" t="n">
         <v>79</v>
       </c>
     </row>
@@ -44486,17 +44653,20 @@
       <c r="IT56" t="n">
         <v>47</v>
       </c>
-      <c r="IU56" t="inlineStr">
+      <c r="IU56" t="n">
+        <v>88</v>
+      </c>
+      <c r="IV56" t="inlineStr">
         <is>
           <t>ANMMEXCSB</t>
         </is>
       </c>
-      <c r="IV56" t="inlineStr">
+      <c r="IW56" t="inlineStr">
         <is>
           <t>Nonmetallic minerals,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW56" t="n">
+      <c r="IX56" t="n">
         <v>80</v>
       </c>
     </row>
@@ -45265,17 +45435,20 @@
       <c r="IT57" t="n">
         <v>2271</v>
       </c>
-      <c r="IU57" t="inlineStr">
+      <c r="IU57" t="n">
+        <v>1616</v>
+      </c>
+      <c r="IV57" t="inlineStr">
         <is>
           <t>ANMGEXCSB</t>
         </is>
       </c>
-      <c r="IV57" t="inlineStr">
+      <c r="IW57" t="inlineStr">
         <is>
           <t>Nonmonetary gold,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW57" t="n">
+      <c r="IX57" t="n">
         <v>81</v>
       </c>
     </row>
@@ -46044,17 +46217,20 @@
       <c r="IT58" t="n">
         <v>43</v>
       </c>
-      <c r="IU58" t="inlineStr">
+      <c r="IU58" t="n">
+        <v>43</v>
+      </c>
+      <c r="IV58" t="inlineStr">
         <is>
           <t>ANFTEXCSB</t>
         </is>
       </c>
-      <c r="IV58" t="inlineStr">
+      <c r="IW58" t="inlineStr">
         <is>
           <t>Nontextile floor tiles,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW58" t="n">
+      <c r="IX58" t="n">
         <v>82</v>
       </c>
     </row>
@@ -46821,19 +46997,22 @@
         <v>46</v>
       </c>
       <c r="IT59" t="n">
-        <v>36</v>
-      </c>
-      <c r="IU59" t="inlineStr">
+        <v>37</v>
+      </c>
+      <c r="IU59" t="n">
+        <v>39</v>
+      </c>
+      <c r="IV59" t="inlineStr">
         <is>
           <t>ANUFEXCSB</t>
         </is>
       </c>
-      <c r="IV59" t="inlineStr">
+      <c r="IW59" t="inlineStr">
         <is>
           <t>Nuclear fuel materials,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW59" t="n">
+      <c r="IX59" t="n">
         <v>83</v>
       </c>
     </row>
@@ -47600,19 +47779,22 @@
         <v>5812</v>
       </c>
       <c r="IT60" t="n">
-        <v>6044</v>
-      </c>
-      <c r="IU60" t="inlineStr">
+        <v>6045</v>
+      </c>
+      <c r="IU60" t="n">
+        <v>6407</v>
+      </c>
+      <c r="IV60" t="inlineStr">
         <is>
           <t>AOPPEXCSB</t>
         </is>
       </c>
-      <c r="IV60" t="inlineStr">
+      <c r="IW60" t="inlineStr">
         <is>
           <t>Petroleum products, other,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW60" t="n">
+      <c r="IX60" t="n">
         <v>85</v>
       </c>
     </row>
@@ -48379,19 +48561,22 @@
         <v>3825</v>
       </c>
       <c r="IT61" t="n">
-        <v>4056</v>
-      </c>
-      <c r="IU61" t="inlineStr">
+        <v>4057</v>
+      </c>
+      <c r="IU61" t="n">
+        <v>4087</v>
+      </c>
+      <c r="IV61" t="inlineStr">
         <is>
           <t>APLAEXCSB</t>
         </is>
       </c>
-      <c r="IV61" t="inlineStr">
+      <c r="IW61" t="inlineStr">
         <is>
           <t>Plastic materials,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW61" t="n">
+      <c r="IX61" t="n">
         <v>86</v>
       </c>
     </row>
@@ -49160,17 +49345,20 @@
       <c r="IT62" t="n">
         <v>1547</v>
       </c>
-      <c r="IU62" t="inlineStr">
+      <c r="IU62" t="n">
+        <v>1852</v>
+      </c>
+      <c r="IV62" t="inlineStr">
         <is>
           <t>AOPMEXCSB</t>
         </is>
       </c>
-      <c r="IV62" t="inlineStr">
+      <c r="IW62" t="inlineStr">
         <is>
           <t>Other precious metals,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW62" t="n">
+      <c r="IX62" t="n">
         <v>88</v>
       </c>
     </row>
@@ -49939,17 +50127,20 @@
       <c r="IT63" t="n">
         <v>828</v>
       </c>
-      <c r="IU63" t="inlineStr">
+      <c r="IU63" t="n">
+        <v>887</v>
+      </c>
+      <c r="IV63" t="inlineStr">
         <is>
           <t>APWPEXCSB</t>
         </is>
       </c>
-      <c r="IV63" t="inlineStr">
+      <c r="IW63" t="inlineStr">
         <is>
           <t>Pulpwood and woodpulp,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW63" t="n">
+      <c r="IX63" t="n">
         <v>89</v>
       </c>
     </row>
@@ -50716,19 +50907,22 @@
         <v>437</v>
       </c>
       <c r="IT64" t="n">
-        <v>429</v>
-      </c>
-      <c r="IU64" t="inlineStr">
+        <v>430</v>
+      </c>
+      <c r="IU64" t="n">
+        <v>425</v>
+      </c>
+      <c r="IV64" t="inlineStr">
         <is>
           <t>ASMWEXCSB</t>
         </is>
       </c>
-      <c r="IV64" t="inlineStr">
+      <c r="IW64" t="inlineStr">
         <is>
           <t>Shingles, molding and wallboard,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW64" t="n">
+      <c r="IX64" t="n">
         <v>90</v>
       </c>
     </row>
@@ -51497,17 +51691,20 @@
       <c r="IT65" t="n">
         <v>932</v>
       </c>
-      <c r="IU65" t="inlineStr">
+      <c r="IU65" t="n">
+        <v>989</v>
+      </c>
+      <c r="IV65" t="inlineStr">
         <is>
           <t>ASMMEXCSB</t>
         </is>
       </c>
-      <c r="IV65" t="inlineStr">
+      <c r="IW65" t="inlineStr">
         <is>
           <t>Steelmaking materials,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW65" t="n">
+      <c r="IX65" t="n">
         <v>91</v>
       </c>
     </row>
@@ -52276,17 +52473,20 @@
       <c r="IT66" t="n">
         <v>305</v>
       </c>
-      <c r="IU66" t="inlineStr">
+      <c r="IU66" t="n">
+        <v>302</v>
+      </c>
+      <c r="IV66" t="inlineStr">
         <is>
           <t>ASRPEXCSB</t>
         </is>
       </c>
-      <c r="IV66" t="inlineStr">
+      <c r="IW66" t="inlineStr">
         <is>
           <t>Synthetic rubber-primary,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW66" t="n">
+      <c r="IX66" t="n">
         <v>95</v>
       </c>
     </row>
@@ -53053,19 +53253,22 @@
         <v>39</v>
       </c>
       <c r="IT67" t="n">
-        <v>48</v>
-      </c>
-      <c r="IU67" t="inlineStr">
+        <v>47</v>
+      </c>
+      <c r="IU67" t="n">
+        <v>51</v>
+      </c>
+      <c r="IV67" t="inlineStr">
         <is>
           <t>ATBUEXCSB</t>
         </is>
       </c>
-      <c r="IV67" t="inlineStr">
+      <c r="IW67" t="inlineStr">
         <is>
           <t>Tobacco, waxes, etc.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW67" t="n">
+      <c r="IX67" t="n">
         <v>97</v>
       </c>
     </row>
@@ -53834,17 +54037,20 @@
       <c r="IT68" t="n">
         <v>118</v>
       </c>
-      <c r="IU68" t="inlineStr">
+      <c r="IU68" t="n">
+        <v>113</v>
+      </c>
+      <c r="IV68" t="inlineStr">
         <is>
           <t>AWSMEXCSB</t>
         </is>
       </c>
-      <c r="IV68" t="inlineStr">
+      <c r="IW68" t="inlineStr">
         <is>
           <t>Wood supplies, manufactured,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW68" t="n">
+      <c r="IX68" t="n">
         <v>98</v>
       </c>
     </row>
@@ -54611,19 +54817,22 @@
         <v>45023</v>
       </c>
       <c r="IT69" t="n">
-        <v>46113</v>
-      </c>
-      <c r="IU69" t="inlineStr">
+        <v>46105</v>
+      </c>
+      <c r="IU69" t="n">
+        <v>45407</v>
+      </c>
+      <c r="IV69" t="inlineStr">
         <is>
           <t>ACPGEXCSB</t>
         </is>
       </c>
-      <c r="IV69" t="inlineStr">
+      <c r="IW69" t="inlineStr">
         <is>
           <t>Capital Goods,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW69" t="n">
+      <c r="IX69" t="n">
         <v>101</v>
       </c>
     </row>
@@ -55390,19 +55599,22 @@
         <v>580</v>
       </c>
       <c r="IT70" t="n">
-        <v>674</v>
-      </c>
-      <c r="IU70" t="inlineStr">
+        <v>675</v>
+      </c>
+      <c r="IU70" t="n">
+        <v>707</v>
+      </c>
+      <c r="IV70" t="inlineStr">
         <is>
           <t>AAMEEXCSB</t>
         </is>
       </c>
-      <c r="IV70" t="inlineStr">
+      <c r="IW70" t="inlineStr">
         <is>
           <t>Agricultural machinery and equipment,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW70" t="n">
+      <c r="IX70" t="n">
         <v>102</v>
       </c>
     </row>
@@ -56171,17 +56383,20 @@
       <c r="IT71" t="n">
         <v>168</v>
       </c>
-      <c r="IU71" t="inlineStr">
+      <c r="IU71" t="n">
+        <v>169</v>
+      </c>
+      <c r="IV71" t="inlineStr">
         <is>
           <t>ABMEEXCSB</t>
         </is>
       </c>
-      <c r="IV71" t="inlineStr">
+      <c r="IW71" t="inlineStr">
         <is>
           <t>Business machines and equipment,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW71" t="n">
+      <c r="IX71" t="n">
         <v>103</v>
       </c>
     </row>
@@ -56950,17 +57165,20 @@
       <c r="IT72" t="n">
         <v>3120</v>
       </c>
-      <c r="IU72" t="inlineStr">
+      <c r="IU72" t="n">
+        <v>2100</v>
+      </c>
+      <c r="IV72" t="inlineStr">
         <is>
           <t>ACVAEXCSB</t>
         </is>
       </c>
-      <c r="IV72" t="inlineStr">
+      <c r="IW72" t="inlineStr">
         <is>
           <t>Civilian aircraft,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW72" t="n">
+      <c r="IX72" t="n">
         <v>104</v>
       </c>
     </row>
@@ -57729,17 +57947,20 @@
       <c r="IT73" t="n">
         <v>22</v>
       </c>
-      <c r="IU73" t="inlineStr">
+      <c r="IU73" t="n">
+        <v>21</v>
+      </c>
+      <c r="IV73" t="inlineStr">
         <is>
           <t>AOCVEXCSB</t>
         </is>
       </c>
-      <c r="IV73" t="inlineStr">
+      <c r="IW73" t="inlineStr">
         <is>
           <t>Commercial vessels, other,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW73" t="n">
+      <c r="IX73" t="n">
         <v>105</v>
       </c>
     </row>
@@ -58506,19 +58727,22 @@
         <v>2503</v>
       </c>
       <c r="IT74" t="n">
-        <v>2522</v>
-      </c>
-      <c r="IU74" t="inlineStr">
+        <v>2523</v>
+      </c>
+      <c r="IU74" t="n">
+        <v>2509</v>
+      </c>
+      <c r="IV74" t="inlineStr">
         <is>
           <t>ACACEXCSB</t>
         </is>
       </c>
-      <c r="IV74" t="inlineStr">
+      <c r="IW74" t="inlineStr">
         <is>
           <t>Computer accessories,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW74" t="n">
+      <c r="IX74" t="n">
         <v>106</v>
       </c>
     </row>
@@ -59287,17 +59511,20 @@
       <c r="IT75" t="n">
         <v>1544</v>
       </c>
-      <c r="IU75" t="inlineStr">
+      <c r="IU75" t="n">
+        <v>1598</v>
+      </c>
+      <c r="IV75" t="inlineStr">
         <is>
           <t>ACPTEXCSB</t>
         </is>
       </c>
-      <c r="IV75" t="inlineStr">
+      <c r="IW75" t="inlineStr">
         <is>
           <t>Computers,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW75" t="n">
+      <c r="IX75" t="n">
         <v>107</v>
       </c>
     </row>
@@ -60066,17 +60293,20 @@
       <c r="IT76" t="n">
         <v>214</v>
       </c>
-      <c r="IU76" t="inlineStr">
+      <c r="IU76" t="n">
+        <v>206</v>
+      </c>
+      <c r="IV76" t="inlineStr">
         <is>
           <t>ADRLEXCSB</t>
         </is>
       </c>
-      <c r="IV76" t="inlineStr">
+      <c r="IW76" t="inlineStr">
         <is>
           <t>Drilling and oilfield equipment,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW76" t="n">
+      <c r="IX76" t="n">
         <v>108</v>
       </c>
     </row>
@@ -60845,17 +61075,20 @@
       <c r="IT77" t="n">
         <v>3806</v>
       </c>
-      <c r="IU77" t="inlineStr">
+      <c r="IU77" t="n">
+        <v>3916</v>
+      </c>
+      <c r="IV77" t="inlineStr">
         <is>
           <t>AEAPEXCSB</t>
         </is>
       </c>
-      <c r="IV77" t="inlineStr">
+      <c r="IW77" t="inlineStr">
         <is>
           <t>Electric apparatus,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW77" t="n">
+      <c r="IX77" t="n">
         <v>109</v>
       </c>
     </row>
@@ -61624,17 +61857,20 @@
       <c r="IT78" t="n">
         <v>3319</v>
       </c>
-      <c r="IU78" t="inlineStr">
+      <c r="IU78" t="n">
+        <v>3609</v>
+      </c>
+      <c r="IV78" t="inlineStr">
         <is>
           <t>AECAEXCSB</t>
         </is>
       </c>
-      <c r="IV78" t="inlineStr">
+      <c r="IW78" t="inlineStr">
         <is>
           <t>Engines-civilian aircraft,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW78" t="n">
+      <c r="IX78" t="n">
         <v>110</v>
       </c>
     </row>
@@ -62401,19 +62637,22 @@
         <v>895</v>
       </c>
       <c r="IT79" t="n">
-        <v>969</v>
-      </c>
-      <c r="IU79" t="inlineStr">
+        <v>962</v>
+      </c>
+      <c r="IU79" t="n">
+        <v>887</v>
+      </c>
+      <c r="IV79" t="inlineStr">
         <is>
           <t>AEXCEXCSB</t>
         </is>
       </c>
-      <c r="IV79" t="inlineStr">
+      <c r="IW79" t="inlineStr">
         <is>
           <t>Excavating machinery,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW79" t="n">
+      <c r="IX79" t="n">
         <v>111</v>
       </c>
     </row>
@@ -63182,17 +63421,20 @@
       <c r="IT80" t="n">
         <v>296</v>
       </c>
-      <c r="IU80" t="inlineStr">
+      <c r="IU80" t="n">
+        <v>326</v>
+      </c>
+      <c r="IV80" t="inlineStr">
         <is>
           <t>AFTMEXCSB</t>
         </is>
       </c>
-      <c r="IV80" t="inlineStr">
+      <c r="IW80" t="inlineStr">
         <is>
           <t>Food and tobacco machinery,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW80" t="n">
+      <c r="IX80" t="n">
         <v>112</v>
       </c>
     </row>
@@ -63961,17 +64203,20 @@
       <c r="IT81" t="n">
         <v>1137</v>
       </c>
-      <c r="IU81" t="inlineStr">
+      <c r="IU81" t="n">
+        <v>1043</v>
+      </c>
+      <c r="IV81" t="inlineStr">
         <is>
           <t>AGNAEXCSB</t>
         </is>
       </c>
-      <c r="IV81" t="inlineStr">
+      <c r="IW81" t="inlineStr">
         <is>
           <t>Generators and accessories,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW81" t="n">
+      <c r="IX81" t="n">
         <v>113</v>
       </c>
     </row>
@@ -64740,17 +64985,20 @@
       <c r="IT82" t="n">
         <v>2097</v>
       </c>
-      <c r="IU82" t="inlineStr">
+      <c r="IU82" t="n">
+        <v>2077</v>
+      </c>
+      <c r="IV82" t="inlineStr">
         <is>
           <t>AIDEEXCSB</t>
         </is>
       </c>
-      <c r="IV82" t="inlineStr">
+      <c r="IW82" t="inlineStr">
         <is>
           <t>Industrial engines,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW82" t="n">
+      <c r="IX82" t="n">
         <v>114</v>
       </c>
     </row>
@@ -65519,17 +65767,20 @@
       <c r="IT83" t="n">
         <v>5761</v>
       </c>
-      <c r="IU83" t="inlineStr">
+      <c r="IU83" t="n">
+        <v>5999</v>
+      </c>
+      <c r="IV83" t="inlineStr">
         <is>
           <t>AOIMEXCSB</t>
         </is>
       </c>
-      <c r="IV83" t="inlineStr">
+      <c r="IW83" t="inlineStr">
         <is>
           <t>Industrial machines, other,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW83" t="n">
+      <c r="IX83" t="n">
         <v>115</v>
       </c>
     </row>
@@ -66298,17 +66549,20 @@
       <c r="IT84" t="n">
         <v>1172</v>
       </c>
-      <c r="IU84" t="inlineStr">
+      <c r="IU84" t="n">
+        <v>1165</v>
+      </c>
+      <c r="IV84" t="inlineStr">
         <is>
           <t>ALABEXCSB</t>
         </is>
       </c>
-      <c r="IV84" t="inlineStr">
+      <c r="IW84" t="inlineStr">
         <is>
           <t>Laboratory testing instruments,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW84" t="n">
+      <c r="IX84" t="n">
         <v>116</v>
       </c>
     </row>
@@ -67077,17 +67331,20 @@
       <c r="IT85" t="n">
         <v>77</v>
       </c>
-      <c r="IU85" t="inlineStr">
+      <c r="IU85" t="n">
+        <v>88</v>
+      </c>
+      <c r="IV85" t="inlineStr">
         <is>
           <t>AMEPEXCSB</t>
         </is>
       </c>
-      <c r="IV85" t="inlineStr">
+      <c r="IW85" t="inlineStr">
         <is>
           <t>Marine engines and parts,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW85" t="n">
+      <c r="IX85" t="n">
         <v>117</v>
       </c>
     </row>
@@ -67856,17 +68113,20 @@
       <c r="IT86" t="n">
         <v>1056</v>
       </c>
-      <c r="IU86" t="inlineStr">
+      <c r="IU86" t="n">
+        <v>958</v>
+      </c>
+      <c r="IV86" t="inlineStr">
         <is>
           <t>AMHEEXCSB</t>
         </is>
       </c>
-      <c r="IV86" t="inlineStr">
+      <c r="IW86" t="inlineStr">
         <is>
           <t>Materials handling equipment,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW86" t="n">
+      <c r="IX86" t="n">
         <v>118</v>
       </c>
     </row>
@@ -68635,17 +68895,20 @@
       <c r="IT87" t="n">
         <v>2217</v>
       </c>
-      <c r="IU87" t="inlineStr">
+      <c r="IU87" t="n">
+        <v>2152</v>
+      </c>
+      <c r="IV87" t="inlineStr">
         <is>
           <t>AMTCEXCSB</t>
         </is>
       </c>
-      <c r="IV87" t="inlineStr">
+      <c r="IW87" t="inlineStr">
         <is>
           <t>Measuring, testing and control instruments,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW87" t="n">
+      <c r="IX87" t="n">
         <v>119</v>
       </c>
     </row>
@@ -69412,19 +69675,22 @@
         <v>3326</v>
       </c>
       <c r="IT88" t="n">
-        <v>3347</v>
-      </c>
-      <c r="IU88" t="inlineStr">
+        <v>3346</v>
+      </c>
+      <c r="IU88" t="n">
+        <v>3457</v>
+      </c>
+      <c r="IV88" t="inlineStr">
         <is>
           <t>AMEDEXCSB</t>
         </is>
       </c>
-      <c r="IV88" t="inlineStr">
+      <c r="IW88" t="inlineStr">
         <is>
           <t>Medical equipment,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW88" t="n">
+      <c r="IX88" t="n">
         <v>120</v>
       </c>
     </row>
@@ -70193,17 +70459,20 @@
       <c r="IT89" t="n">
         <v>536</v>
       </c>
-      <c r="IU89" t="inlineStr">
+      <c r="IU89" t="n">
+        <v>549</v>
+      </c>
+      <c r="IV89" t="inlineStr">
         <is>
           <t>AMMTEXCSB</t>
         </is>
       </c>
-      <c r="IV89" t="inlineStr">
+      <c r="IW89" t="inlineStr">
         <is>
           <t>Metalworking machine tools,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW89" t="n">
+      <c r="IX89" t="n">
         <v>121</v>
       </c>
     </row>
@@ -70972,17 +71241,20 @@
       <c r="IT90" t="n">
         <v>283</v>
       </c>
-      <c r="IU90" t="inlineStr">
+      <c r="IU90" t="n">
+        <v>263</v>
+      </c>
+      <c r="IV90" t="inlineStr">
         <is>
           <t>ANFPEXCSB</t>
         </is>
       </c>
-      <c r="IV90" t="inlineStr">
+      <c r="IW90" t="inlineStr">
         <is>
           <t>Nonfarming tractors and parts,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW90" t="n">
+      <c r="IX90" t="n">
         <v>122</v>
       </c>
     </row>
@@ -71749,19 +72021,22 @@
         <v>1488</v>
       </c>
       <c r="IT91" t="n">
-        <v>1613</v>
-      </c>
-      <c r="IU91" t="inlineStr">
+        <v>1614</v>
+      </c>
+      <c r="IU91" t="n">
+        <v>1575</v>
+      </c>
+      <c r="IV91" t="inlineStr">
         <is>
           <t>APCAEXCSB</t>
         </is>
       </c>
-      <c r="IV91" t="inlineStr">
+      <c r="IW91" t="inlineStr">
         <is>
           <t>Parts-civilian aircraft,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW91" t="n">
+      <c r="IX91" t="n">
         <v>123</v>
       </c>
     </row>
@@ -72530,17 +72805,20 @@
       <c r="IT92" t="n">
         <v>774</v>
       </c>
-      <c r="IU92" t="inlineStr">
+      <c r="IU92" t="n">
+        <v>811</v>
+      </c>
+      <c r="IV92" t="inlineStr">
         <is>
           <t>APHSEXCSB</t>
         </is>
       </c>
-      <c r="IV92" t="inlineStr">
+      <c r="IW92" t="inlineStr">
         <is>
           <t>Photo and service industry machinery,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW92" t="n">
+      <c r="IX92" t="n">
         <v>124</v>
       </c>
     </row>
@@ -73309,17 +73587,20 @@
       <c r="IT93" t="n">
         <v>147</v>
       </c>
-      <c r="IU93" t="inlineStr">
+      <c r="IU93" t="n">
+        <v>175</v>
+      </c>
+      <c r="IV93" t="inlineStr">
         <is>
           <t>APPMEXCSB</t>
         </is>
       </c>
-      <c r="IV93" t="inlineStr">
+      <c r="IW93" t="inlineStr">
         <is>
           <t>Pulp and paper machinery,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW93" t="n">
+      <c r="IX93" t="n">
         <v>125</v>
       </c>
     </row>
@@ -74088,17 +74369,20 @@
       <c r="IT94" t="n">
         <v>265</v>
       </c>
-      <c r="IU94" t="inlineStr">
+      <c r="IU94" t="n">
+        <v>237</v>
+      </c>
+      <c r="IV94" t="inlineStr">
         <is>
           <t>ARTEEXCSB</t>
         </is>
       </c>
-      <c r="IV94" t="inlineStr">
+      <c r="IW94" t="inlineStr">
         <is>
           <t>Railway transportation equipment,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW94" t="n">
+      <c r="IX94" t="n">
         <v>126</v>
       </c>
     </row>
@@ -74865,19 +75149,22 @@
         <v>5576</v>
       </c>
       <c r="IT95" t="n">
-        <v>5694</v>
-      </c>
-      <c r="IU95" t="inlineStr">
+        <v>5693</v>
+      </c>
+      <c r="IU95" t="n">
+        <v>5493</v>
+      </c>
+      <c r="IV95" t="inlineStr">
         <is>
           <t>ASCDEXCSB</t>
         </is>
       </c>
-      <c r="IV95" t="inlineStr">
+      <c r="IW95" t="inlineStr">
         <is>
           <t>Semiconductors,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW95" t="n">
+      <c r="IX95" t="n">
         <v>127</v>
       </c>
     </row>
@@ -75674,17 +75961,20 @@
       <c r="IT96" t="n">
         <v>5</v>
       </c>
-      <c r="IU96" t="inlineStr">
+      <c r="IU96" t="n">
+        <v>3</v>
+      </c>
+      <c r="IV96" t="inlineStr">
         <is>
           <t>ASPCEXCSB</t>
         </is>
       </c>
-      <c r="IV96" t="inlineStr">
+      <c r="IW96" t="inlineStr">
         <is>
           <t>Spacecraft, excluding military,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW96" t="n">
+      <c r="IX96" t="n">
         <v>128</v>
       </c>
     </row>
@@ -76453,17 +76743,20 @@
       <c r="IT97" t="n">
         <v>89</v>
       </c>
-      <c r="IU97" t="inlineStr">
+      <c r="IU97" t="n">
+        <v>107</v>
+      </c>
+      <c r="IV97" t="inlineStr">
         <is>
           <t>ASPMEXCSB</t>
         </is>
       </c>
-      <c r="IV97" t="inlineStr">
+      <c r="IW97" t="inlineStr">
         <is>
           <t>Specialized mining,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW97" t="n">
+      <c r="IX97" t="n">
         <v>129</v>
       </c>
     </row>
@@ -77232,17 +77525,20 @@
       <c r="IT98" t="n">
         <v>2741</v>
       </c>
-      <c r="IU98" t="inlineStr">
+      <c r="IU98" t="n">
+        <v>2830</v>
+      </c>
+      <c r="IV98" t="inlineStr">
         <is>
           <t>ATELEXCSB</t>
         </is>
       </c>
-      <c r="IV98" t="inlineStr">
+      <c r="IW98" t="inlineStr">
         <is>
           <t>Telecommunications equipment,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW98" t="n">
+      <c r="IX98" t="n">
         <v>130</v>
       </c>
     </row>
@@ -78011,17 +78307,20 @@
       <c r="IT99" t="n">
         <v>91</v>
       </c>
-      <c r="IU99" t="inlineStr">
+      <c r="IU99" t="n">
+        <v>85</v>
+      </c>
+      <c r="IV99" t="inlineStr">
         <is>
           <t>ATSMEXCSB</t>
         </is>
       </c>
-      <c r="IV99" t="inlineStr">
+      <c r="IW99" t="inlineStr">
         <is>
           <t>Textile, sewing machines,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW99" t="n">
+      <c r="IX99" t="n">
         <v>131</v>
       </c>
     </row>
@@ -78832,17 +79131,20 @@
           <t>(-)</t>
         </is>
       </c>
-      <c r="IU100" t="inlineStr">
+      <c r="IU100" t="n">
+        <v>1</v>
+      </c>
+      <c r="IV100" t="inlineStr">
         <is>
           <t>AVESEXCSB</t>
         </is>
       </c>
-      <c r="IV100" t="inlineStr">
+      <c r="IW100" t="inlineStr">
         <is>
           <t>Vessels, excluding scrap,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW100" t="n">
+      <c r="IX100" t="n">
         <v>132</v>
       </c>
     </row>
@@ -79611,17 +79913,20 @@
       <c r="IT101" t="n">
         <v>355</v>
       </c>
-      <c r="IU101" t="inlineStr">
+      <c r="IU101" t="n">
+        <v>290</v>
+      </c>
+      <c r="IV101" t="inlineStr">
         <is>
           <t>AWGPEXCSB</t>
         </is>
       </c>
-      <c r="IV101" t="inlineStr">
+      <c r="IW101" t="inlineStr">
         <is>
           <t>Wood, glass and plastic,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW101" t="n">
+      <c r="IX101" t="n">
         <v>133</v>
       </c>
     </row>
@@ -80390,17 +80695,20 @@
       <c r="IT102" t="n">
         <v>12336</v>
       </c>
-      <c r="IU102" t="inlineStr">
+      <c r="IU102" t="n">
+        <v>12046</v>
+      </c>
+      <c r="IV102" t="inlineStr">
         <is>
           <t>AAMVEXCSB</t>
         </is>
       </c>
-      <c r="IV102" t="inlineStr">
+      <c r="IW102" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW102" t="n">
+      <c r="IX102" t="n">
         <v>134</v>
       </c>
     </row>
@@ -80809,19 +81117,22 @@
         <v>258</v>
       </c>
       <c r="IT103" t="n">
-        <v>257</v>
-      </c>
-      <c r="IU103" t="inlineStr">
+        <v>256</v>
+      </c>
+      <c r="IU103" t="n">
+        <v>259</v>
+      </c>
+      <c r="IV103" t="inlineStr">
         <is>
           <t>AATTEXCSB</t>
         </is>
       </c>
-      <c r="IV103" t="inlineStr">
+      <c r="IW103" t="inlineStr">
         <is>
           <t>Automotive tires and tubes,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW103" t="n">
+      <c r="IX103" t="n">
         <v>135</v>
       </c>
     </row>
@@ -81232,17 +81543,20 @@
       <c r="IT104" t="n">
         <v>9</v>
       </c>
-      <c r="IU104" t="inlineStr">
+      <c r="IU104" t="n">
+        <v>11</v>
+      </c>
+      <c r="IV104" t="inlineStr">
         <is>
           <t>ABCPEXCSB</t>
         </is>
       </c>
-      <c r="IV104" t="inlineStr">
+      <c r="IW104" t="inlineStr">
         <is>
           <t>Bodies and chassis for passenger cars,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW104" t="n">
+      <c r="IX104" t="n">
         <v>136</v>
       </c>
     </row>
@@ -81651,19 +81965,22 @@
         <v>1626</v>
       </c>
       <c r="IT105" t="n">
-        <v>1523</v>
-      </c>
-      <c r="IU105" t="inlineStr">
+        <v>1524</v>
+      </c>
+      <c r="IU105" t="n">
+        <v>1592</v>
+      </c>
+      <c r="IV105" t="inlineStr">
         <is>
           <t>AENPEXCSB</t>
         </is>
       </c>
-      <c r="IV105" t="inlineStr">
+      <c r="IW105" t="inlineStr">
         <is>
           <t>Engines and engine parts,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW105" t="n">
+      <c r="IX105" t="n">
         <v>139</v>
       </c>
     </row>
@@ -82074,17 +82391,20 @@
       <c r="IT106" t="n">
         <v>4345</v>
       </c>
-      <c r="IU106" t="inlineStr">
+      <c r="IU106" t="n">
+        <v>4727</v>
+      </c>
+      <c r="IV106" t="inlineStr">
         <is>
           <t>AOPAEXCSB</t>
         </is>
       </c>
-      <c r="IV106" t="inlineStr">
+      <c r="IW106" t="inlineStr">
         <is>
           <t>Other parts and accessories of vehicles,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW106" t="n">
+      <c r="IX106" t="n">
         <v>140</v>
       </c>
     </row>
@@ -82495,17 +82815,20 @@
       <c r="IT107" t="n">
         <v>4451</v>
       </c>
-      <c r="IU107" t="inlineStr">
+      <c r="IU107" t="n">
+        <v>3911</v>
+      </c>
+      <c r="IV107" t="inlineStr">
         <is>
           <t>APSCEXCSB</t>
         </is>
       </c>
-      <c r="IV107" t="inlineStr">
+      <c r="IW107" t="inlineStr">
         <is>
           <t>Passenger cars, new and used,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW107" t="n">
+      <c r="IX107" t="n">
         <v>141</v>
       </c>
     </row>
@@ -82916,17 +83239,20 @@
       <c r="IT108" t="n">
         <v>1750</v>
       </c>
-      <c r="IU108" t="inlineStr">
+      <c r="IU108" t="n">
+        <v>1547</v>
+      </c>
+      <c r="IV108" t="inlineStr">
         <is>
           <t>ATBVEXCSB</t>
         </is>
       </c>
-      <c r="IV108" t="inlineStr">
+      <c r="IW108" t="inlineStr">
         <is>
           <t>Trucks, buses and special purpose vehicles,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW108" t="n">
+      <c r="IX108" t="n">
         <v>142</v>
       </c>
     </row>
@@ -83693,19 +84019,22 @@
         <v>21946</v>
       </c>
       <c r="IT109" t="n">
-        <v>18970</v>
-      </c>
-      <c r="IU109" t="inlineStr">
+        <v>18988</v>
+      </c>
+      <c r="IU109" t="n">
+        <v>20255</v>
+      </c>
+      <c r="IV109" t="inlineStr">
         <is>
           <t>ACGDEXCSB</t>
         </is>
       </c>
-      <c r="IV109" t="inlineStr">
+      <c r="IW109" t="inlineStr">
         <is>
           <t>Consumer Goods,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW109" t="n">
+      <c r="IX109" t="n">
         <v>143</v>
       </c>
     </row>
@@ -84474,17 +84803,20 @@
       <c r="IT110" t="n">
         <v>709</v>
       </c>
-      <c r="IU110" t="inlineStr">
+      <c r="IU110" t="n">
+        <v>678</v>
+      </c>
+      <c r="IV110" t="inlineStr">
         <is>
           <t>ATAHEXCSB</t>
         </is>
       </c>
-      <c r="IV110" t="inlineStr">
+      <c r="IW110" t="inlineStr">
         <is>
           <t>Apparel and household goods - textile,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW110" t="n">
+      <c r="IX110" t="n">
         <v>145</v>
       </c>
     </row>
@@ -85253,17 +85585,20 @@
       <c r="IT111" t="n">
         <v>252</v>
       </c>
-      <c r="IU111" t="inlineStr">
+      <c r="IU111" t="n">
+        <v>249</v>
+      </c>
+      <c r="IV111" t="inlineStr">
         <is>
           <t>ANTAEXCSB</t>
         </is>
       </c>
-      <c r="IV111" t="inlineStr">
+      <c r="IW111" t="inlineStr">
         <is>
           <t>Apparel and household goods-nontextile,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW111" t="n">
+      <c r="IX111" t="n">
         <v>146</v>
       </c>
     </row>
@@ -86032,17 +86367,20 @@
       <c r="IT112" t="n">
         <v>831</v>
       </c>
-      <c r="IU112" t="inlineStr">
+      <c r="IU112" t="n">
+        <v>839</v>
+      </c>
+      <c r="IV112" t="inlineStr">
         <is>
           <t>AARTEXCSB</t>
         </is>
       </c>
-      <c r="IV112" t="inlineStr">
+      <c r="IW112" t="inlineStr">
         <is>
           <t>Artwork, antiques, stamps, etc.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW112" t="n">
+      <c r="IX112" t="n">
         <v>149</v>
       </c>
     </row>
@@ -86567,17 +86905,18 @@
       <c r="IR113" t="inlineStr"/>
       <c r="IS113" t="inlineStr"/>
       <c r="IT113" t="inlineStr"/>
-      <c r="IU113" t="inlineStr">
+      <c r="IU113" t="inlineStr"/>
+      <c r="IV113" t="inlineStr">
         <is>
           <t>AWASEXCSB</t>
         </is>
       </c>
-      <c r="IV113" t="inlineStr">
+      <c r="IW113" t="inlineStr">
         <is>
           <t>Writing and art supplies,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW113" t="n">
+      <c r="IX113" t="n">
         <v>150</v>
       </c>
     </row>
@@ -87346,17 +87685,20 @@
       <c r="IT114" t="n">
         <v>350</v>
       </c>
-      <c r="IU114" t="inlineStr">
+      <c r="IU114" t="n">
+        <v>374</v>
+      </c>
+      <c r="IV114" t="inlineStr">
         <is>
           <t>ABPMEXCSB</t>
         </is>
       </c>
-      <c r="IV114" t="inlineStr">
+      <c r="IW114" t="inlineStr">
         <is>
           <t>Books and printed matter,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW114" t="n">
+      <c r="IX114" t="n">
         <v>151</v>
       </c>
     </row>
@@ -87861,19 +88203,22 @@
         <v>2674</v>
       </c>
       <c r="IT115" t="n">
-        <v>2497</v>
-      </c>
-      <c r="IU115" t="inlineStr">
+        <v>2496</v>
+      </c>
+      <c r="IU115" t="n">
+        <v>2567</v>
+      </c>
+      <c r="IV115" t="inlineStr">
         <is>
           <t>ACELEXCSB</t>
         </is>
       </c>
-      <c r="IV115" t="inlineStr">
+      <c r="IW115" t="inlineStr">
         <is>
           <t>Cell phones and other household goods, n.e.c.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW115" t="n">
+      <c r="IX115" t="n">
         <v>153</v>
       </c>
     </row>
@@ -88642,17 +88987,20 @@
       <c r="IT116" t="n">
         <v>119</v>
       </c>
-      <c r="IU116" t="inlineStr">
+      <c r="IU116" t="n">
+        <v>125</v>
+      </c>
+      <c r="IV116" t="inlineStr">
         <is>
           <t>ACCTEXCSB</t>
         </is>
       </c>
-      <c r="IV116" t="inlineStr">
+      <c r="IW116" t="inlineStr">
         <is>
           <t>Cookware, cutlery and tools,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW116" t="n">
+      <c r="IX116" t="n">
         <v>154</v>
       </c>
     </row>
@@ -89421,17 +89769,20 @@
       <c r="IT117" t="n">
         <v>407</v>
       </c>
-      <c r="IU117" t="inlineStr">
+      <c r="IU117" t="n">
+        <v>432</v>
+      </c>
+      <c r="IV117" t="inlineStr">
         <is>
           <t>AFHGEXCSB</t>
         </is>
       </c>
-      <c r="IV117" t="inlineStr">
+      <c r="IW117" t="inlineStr">
         <is>
           <t>Furniture, household goods, etc.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW117" t="n">
+      <c r="IX117" t="n">
         <v>156</v>
       </c>
     </row>
@@ -89956,17 +90307,18 @@
       <c r="IR118" t="inlineStr"/>
       <c r="IS118" t="inlineStr"/>
       <c r="IT118" t="inlineStr"/>
-      <c r="IU118" t="inlineStr">
+      <c r="IU118" t="inlineStr"/>
+      <c r="IV118" t="inlineStr">
         <is>
           <t>AOHGEXCSB</t>
         </is>
       </c>
-      <c r="IV118" t="inlineStr">
+      <c r="IW118" t="inlineStr">
         <is>
           <t>Other household goods,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW118" t="n">
+      <c r="IX118" t="n">
         <v>157</v>
       </c>
     </row>
@@ -90733,19 +91085,22 @@
         <v>1431</v>
       </c>
       <c r="IT119" t="n">
-        <v>1803</v>
-      </c>
-      <c r="IU119" t="inlineStr">
+        <v>1820</v>
+      </c>
+      <c r="IU119" t="n">
+        <v>1721</v>
+      </c>
+      <c r="IV119" t="inlineStr">
         <is>
           <t>AGEMEXCSB</t>
         </is>
       </c>
-      <c r="IV119" t="inlineStr">
+      <c r="IW119" t="inlineStr">
         <is>
           <t>Gem diamonds,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW119" t="n">
+      <c r="IX119" t="n">
         <v>158</v>
       </c>
     </row>
@@ -91514,17 +91869,20 @@
       <c r="IT120" t="n">
         <v>43</v>
       </c>
-      <c r="IU120" t="inlineStr">
+      <c r="IU120" t="n">
+        <v>56</v>
+      </c>
+      <c r="IV120" t="inlineStr">
         <is>
           <t>AGCWEXCSB</t>
         </is>
       </c>
-      <c r="IV120" t="inlineStr">
+      <c r="IW120" t="inlineStr">
         <is>
           <t>Glassware and chinaware,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW120" t="n">
+      <c r="IX120" t="n">
         <v>160</v>
       </c>
     </row>
@@ -92293,17 +92651,20 @@
       <c r="IT121" t="n">
         <v>650</v>
       </c>
-      <c r="IU121" t="inlineStr">
+      <c r="IU121" t="n">
+        <v>621</v>
+      </c>
+      <c r="IV121" t="inlineStr">
         <is>
           <t>AAPPEXCSB</t>
         </is>
       </c>
-      <c r="IV121" t="inlineStr">
+      <c r="IW121" t="inlineStr">
         <is>
           <t>Household appliances,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW121" t="n">
+      <c r="IX121" t="n">
         <v>161</v>
       </c>
     </row>
@@ -93070,19 +93431,22 @@
         <v>855</v>
       </c>
       <c r="IT122" t="n">
-        <v>850</v>
-      </c>
-      <c r="IU122" t="inlineStr">
+        <v>851</v>
+      </c>
+      <c r="IU122" t="n">
+        <v>619</v>
+      </c>
+      <c r="IV122" t="inlineStr">
         <is>
           <t>AJLREXCSB</t>
         </is>
       </c>
-      <c r="IV122" t="inlineStr">
+      <c r="IW122" t="inlineStr">
         <is>
           <t>Jewelry, etc.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW122" t="n">
+      <c r="IX122" t="n">
         <v>162</v>
       </c>
     </row>
@@ -93851,17 +94215,20 @@
       <c r="IT123" t="n">
         <v>177</v>
       </c>
-      <c r="IU123" t="inlineStr">
+      <c r="IU123" t="n">
+        <v>199</v>
+      </c>
+      <c r="IV123" t="inlineStr">
         <is>
           <t>AMUSEXCSB</t>
         </is>
       </c>
-      <c r="IV123" t="inlineStr">
+      <c r="IW123" t="inlineStr">
         <is>
           <t>Musical instruments,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW123" t="n">
+      <c r="IX123" t="n">
         <v>164</v>
       </c>
     </row>
@@ -94630,17 +94997,20 @@
       <c r="IT124" t="n">
         <v>153</v>
       </c>
-      <c r="IU124" t="inlineStr">
+      <c r="IU124" t="n">
+        <v>107</v>
+      </c>
+      <c r="IV124" t="inlineStr">
         <is>
           <t>ANMCEXCSB</t>
         </is>
       </c>
-      <c r="IV124" t="inlineStr">
+      <c r="IW124" t="inlineStr">
         <is>
           <t>Numismatic coins,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW124" t="n">
+      <c r="IX124" t="n">
         <v>165</v>
       </c>
     </row>
@@ -95409,17 +95779,20 @@
       <c r="IT125" t="n">
         <v>41</v>
       </c>
-      <c r="IU125" t="inlineStr">
+      <c r="IU125" t="n">
+        <v>45</v>
+      </c>
+      <c r="IV125" t="inlineStr">
         <is>
           <t>ANUREXCSB</t>
         </is>
       </c>
-      <c r="IV125" t="inlineStr">
+      <c r="IW125" t="inlineStr">
         <is>
           <t>Nursery stock, etc.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW125" t="n">
+      <c r="IX125" t="n">
         <v>166</v>
       </c>
     </row>
@@ -95926,17 +96299,20 @@
       <c r="IT126" t="n">
         <v>577</v>
       </c>
-      <c r="IU126" t="inlineStr">
+      <c r="IU126" t="n">
+        <v>621</v>
+      </c>
+      <c r="IV126" t="inlineStr">
         <is>
           <t>AOCNEXCSB</t>
         </is>
       </c>
-      <c r="IV126" t="inlineStr">
+      <c r="IW126" t="inlineStr">
         <is>
           <t>Other consumer nondurables,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW126" t="n">
+      <c r="IX126" t="n">
         <v>167</v>
       </c>
     </row>
@@ -96705,17 +97081,20 @@
       <c r="IT127" t="n">
         <v>6490</v>
       </c>
-      <c r="IU127" t="inlineStr">
+      <c r="IU127" t="n">
+        <v>7955</v>
+      </c>
+      <c r="IV127" t="inlineStr">
         <is>
           <t>APHAEXCSB</t>
         </is>
       </c>
-      <c r="IV127" t="inlineStr">
+      <c r="IW127" t="inlineStr">
         <is>
           <t>Pharmaceutical preparations,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW127" t="n">
+      <c r="IX127" t="n">
         <v>168</v>
       </c>
     </row>
@@ -97484,17 +97863,20 @@
       <c r="IT128" t="n">
         <v>212</v>
       </c>
-      <c r="IU128" t="inlineStr">
+      <c r="IU128" t="n">
+        <v>223</v>
+      </c>
+      <c r="IV128" t="inlineStr">
         <is>
           <t>APBMEXCSB</t>
         </is>
       </c>
-      <c r="IV128" t="inlineStr">
+      <c r="IW128" t="inlineStr">
         <is>
           <t>Pleasure boats and motors,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW128" t="n">
+      <c r="IX128" t="n">
         <v>170</v>
       </c>
     </row>
@@ -98263,17 +98645,20 @@
       <c r="IT129" t="n">
         <v>153</v>
       </c>
-      <c r="IU129" t="inlineStr">
+      <c r="IU129" t="n">
+        <v>122</v>
+      </c>
+      <c r="IV129" t="inlineStr">
         <is>
           <t>ARCMEXCSB</t>
         </is>
       </c>
-      <c r="IV129" t="inlineStr">
+      <c r="IW129" t="inlineStr">
         <is>
           <t>Recorded media,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW129" t="n">
+      <c r="IX129" t="n">
         <v>171</v>
       </c>
     </row>
@@ -99042,17 +99427,20 @@
       <c r="IT130" t="n">
         <v>65</v>
       </c>
-      <c r="IU130" t="inlineStr">
+      <c r="IU130" t="n">
+        <v>66</v>
+      </c>
+      <c r="IV130" t="inlineStr">
         <is>
           <t>ARUGEXCSB</t>
         </is>
       </c>
-      <c r="IV130" t="inlineStr">
+      <c r="IW130" t="inlineStr">
         <is>
           <t>Rugs,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW130" t="n">
+      <c r="IX130" t="n">
         <v>172</v>
       </c>
     </row>
@@ -99821,17 +100209,20 @@
       <c r="IT131" t="n">
         <v>66</v>
       </c>
-      <c r="IU131" t="inlineStr">
+      <c r="IU131" t="n">
+        <v>79</v>
+      </c>
+      <c r="IV131" t="inlineStr">
         <is>
           <t>ASAGEXCSB</t>
         </is>
       </c>
-      <c r="IV131" t="inlineStr">
+      <c r="IW131" t="inlineStr">
         <is>
           <t>Sports apparel and gear,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW131" t="n">
+      <c r="IX131" t="n">
         <v>173</v>
       </c>
     </row>
@@ -100600,17 +100991,20 @@
       <c r="IT132" t="n">
         <v>217</v>
       </c>
-      <c r="IU132" t="inlineStr">
+      <c r="IU132" t="n">
+        <v>233</v>
+      </c>
+      <c r="IV132" t="inlineStr">
         <is>
           <t>ASTEEXCSB</t>
         </is>
       </c>
-      <c r="IV132" t="inlineStr">
+      <c r="IW132" t="inlineStr">
         <is>
           <t>Stereo equipment, etc.,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW132" t="n">
+      <c r="IX132" t="n">
         <v>174</v>
       </c>
     </row>
@@ -101379,17 +101773,20 @@
       <c r="IT133" t="n">
         <v>235</v>
       </c>
-      <c r="IU133" t="inlineStr">
+      <c r="IU133" t="n">
+        <v>228</v>
+      </c>
+      <c r="IV133" t="inlineStr">
         <is>
           <t>ATVEEXCSB</t>
         </is>
       </c>
-      <c r="IV133" t="inlineStr">
+      <c r="IW133" t="inlineStr">
         <is>
           <t>Televisions and video equipment,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW133" t="n">
+      <c r="IX133" t="n">
         <v>175</v>
       </c>
     </row>
@@ -102158,17 +102555,20 @@
       <c r="IT134" t="n">
         <v>29</v>
       </c>
-      <c r="IU134" t="inlineStr">
+      <c r="IU134" t="n">
+        <v>29</v>
+      </c>
+      <c r="IV134" t="inlineStr">
         <is>
           <t>ATBMEXCSB</t>
         </is>
       </c>
-      <c r="IV134" t="inlineStr">
+      <c r="IW134" t="inlineStr">
         <is>
           <t>Tobacco, manufactured,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW134" t="n">
+      <c r="IX134" t="n">
         <v>176</v>
       </c>
     </row>
@@ -102937,17 +103337,20 @@
       <c r="IT135" t="n">
         <v>1040</v>
       </c>
-      <c r="IU135" t="inlineStr">
+      <c r="IU135" t="n">
+        <v>1107</v>
+      </c>
+      <c r="IV135" t="inlineStr">
         <is>
           <t>ATCMEXCSB</t>
         </is>
       </c>
-      <c r="IV135" t="inlineStr">
+      <c r="IW135" t="inlineStr">
         <is>
           <t>Toiletries and cosmetics,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW135" t="n">
+      <c r="IX135" t="n">
         <v>177</v>
       </c>
     </row>
@@ -103716,17 +104119,20 @@
       <c r="IT136" t="n">
         <v>1005</v>
       </c>
-      <c r="IU136" t="inlineStr">
+      <c r="IU136" t="n">
+        <v>959</v>
+      </c>
+      <c r="IV136" t="inlineStr">
         <is>
           <t>ATOYEXCSB</t>
         </is>
       </c>
-      <c r="IV136" t="inlineStr">
+      <c r="IW136" t="inlineStr">
         <is>
           <t>Toys, games and sporting goods,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW136" t="n">
+      <c r="IX136" t="n">
         <v>178</v>
       </c>
     </row>
@@ -104493,19 +104899,22 @@
         <v>5898</v>
       </c>
       <c r="IT137" t="n">
-        <v>5700</v>
-      </c>
-      <c r="IU137" t="inlineStr">
+        <v>5650</v>
+      </c>
+      <c r="IU137" t="n">
+        <v>5607</v>
+      </c>
+      <c r="IV137" t="inlineStr">
         <is>
           <t>AOTGEXCSB</t>
         </is>
       </c>
-      <c r="IV137" t="inlineStr">
+      <c r="IW137" t="inlineStr">
         <is>
           <t>Other Goods,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="IW137" t="n">
+      <c r="IX137" t="n">
         <v>179</v>
       </c>
     </row>
